--- a/2024-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
+++ b/2024-SOZL/1_crs/DGS-081-03-2302_Hızarhane/081-Dgs-03-20230227- HSP-adem Duman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2023-SOZL\1_crs\081-Dgs-03-2302_Hızarhane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\2024-SOZL\1_crs\DGS-081-03-2302_Hızarhane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B53690-7344-49C0-8180-E3AFFF8732C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1828CF13-5533-453C-8E5C-F7FA68E58BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
   <si>
     <t>tutar</t>
   </si>
@@ -549,6 +549,22 @@
   </si>
   <si>
     <t>nakden</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bankadan  15000 TL              </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+      </rPr>
+      <t>08-07-2024</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1260,6 +1276,10 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1279,7 +1299,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1295,23 +1315,19 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1650,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2786,11 +2802,14 @@
         <v>45473</v>
       </c>
       <c r="C86" t="s">
-        <v>64</v>
+        <v>107</v>
+      </c>
+      <c r="E86">
+        <v>-15000</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="3"/>
-        <v>38500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,13 +2824,13 @@
       </c>
       <c r="F87" s="1">
         <f t="shared" si="3"/>
-        <v>38500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F88" s="1">
         <f t="shared" si="3"/>
-        <v>38500</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,7 +2839,7 @@
       </c>
       <c r="F89" s="1">
         <f>F88</f>
-        <v>38500</v>
+        <v>23500</v>
       </c>
     </row>
   </sheetData>
@@ -2850,7 +2869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74"/>
+      <c r="A1" s="75"/>
       <c r="B1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +2880,7 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="74"/>
+      <c r="A2" s="75"/>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
@@ -2878,7 +2897,7 @@
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -2891,7 +2910,7 @@
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2902,7 +2921,7 @@
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="A6" s="76"/>
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
@@ -2913,7 +2932,7 @@
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2924,7 +2943,7 @@
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2935,7 +2954,7 @@
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2948,7 +2967,7 @@
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2959,7 +2978,7 @@
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
@@ -2970,7 +2989,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="76"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3047,7 +3066,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="76"/>
+      <c r="A1" s="77"/>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
@@ -3057,7 +3076,7 @@
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
+      <c r="A2" s="77"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
       </c>
@@ -3081,7 +3100,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="18">
         <v>1</v>
       </c>
@@ -3106,7 +3125,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="21">
         <v>2</v>
       </c>
@@ -3124,7 +3143,7 @@
         <v xml:space="preserve">Onyedibin TL </v>
       </c>
       <c r="G4" s="21" t="str">
-        <f t="shared" ref="G4:G14" si="1">G3</f>
+        <f t="shared" ref="G4:G13" si="1">G3</f>
         <v>NAKDEN</v>
       </c>
       <c r="H4" s="18" t="s">
@@ -3132,7 +3151,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="21">
         <v>3</v>
       </c>
@@ -3158,7 +3177,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="21">
         <v>4</v>
       </c>
@@ -3184,7 +3203,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="21">
         <v>5</v>
       </c>
@@ -3210,7 +3229,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="21">
         <v>6</v>
       </c>
@@ -3236,7 +3255,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="21">
         <v>7</v>
       </c>
@@ -3288,7 +3307,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="76"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="21">
         <v>9</v>
       </c>
@@ -3314,7 +3333,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
+      <c r="A12" s="77"/>
       <c r="B12" s="21">
         <v>10</v>
       </c>
@@ -3340,7 +3359,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="76"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="21">
         <v>11</v>
       </c>
@@ -3366,7 +3385,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="21"/>
       <c r="C14" s="23">
         <v>45503</v>
@@ -3383,7 +3402,7 @@
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="17"/>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
@@ -3393,7 +3412,7 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="76"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="17"/>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
@@ -3403,7 +3422,7 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="17"/>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
@@ -3413,7 +3432,7 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="76"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -3423,7 +3442,7 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="17"/>
       <c r="C19" s="21"/>
       <c r="D19" s="19"/>
@@ -3527,7 +3546,7 @@
       <c r="D2" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="85" t="str">
+      <c r="E2" s="89" t="str">
         <f>$D9 &amp;"    - Taksit No: " &amp; $D4&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 1 #  </v>
       </c>
@@ -3560,7 +3579,7 @@
       <c r="D3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="30"/>
       <c r="G3" s="45">
         <f>D17</f>
@@ -3596,7 +3615,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B3),"##.##0")&amp;" #"</f>
         <v># 1 #</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -3616,7 +3635,7 @@
       <c r="D5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G3,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F3&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G3&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -3640,7 +3659,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E3),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E6" s="85"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
       <c r="H6" s="86"/>
@@ -3661,7 +3680,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E3-INT('Senet Taksit Giriş'!E3))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E7" s="85"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
       <c r="H7" s="86"/>
@@ -3681,7 +3700,7 @@
       <c r="D8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="86"/>
       <c r="G8" s="86"/>
       <c r="H8" s="86"/>
@@ -3698,11 +3717,11 @@
       <c r="A9" s="30"/>
       <c r="B9" s="55"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="78" t="str">
+      <c r="D9" s="79" t="str">
         <f>'Senet Borçlu Alacaklı Giriş'!C5</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
@@ -3719,22 +3738,22 @@
       <c r="A10" s="30"/>
       <c r="B10" s="42"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="79" t="s">
+      <c r="D10" s="79"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="87" t="str">
+      <c r="G10" s="81" t="str">
         <f>"İsim : "&amp;$D9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="33"/>
       <c r="P10" s="51"/>
     </row>
@@ -3742,17 +3761,17 @@
       <c r="A11" s="30"/>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="82" t="str">
+      <c r="D11" s="79"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
@@ -3763,14 +3782,14 @@
       <c r="A12" s="30"/>
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
       <c r="L12" s="43" t="s">
         <v>49</v>
       </c>
@@ -3783,16 +3802,16 @@
       <c r="A13" s="30"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="83" t="str">
+      <c r="D13" s="79"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -3804,16 +3823,16 @@
       <c r="A14" s="30"/>
       <c r="B14" s="42"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="84" t="str">
+      <c r="D14" s="79"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -3825,18 +3844,18 @@
       <c r="A15" s="30"/>
       <c r="B15" s="55"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="79" t="s">
+      <c r="D15" s="79"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="80" t="str">
+      <c r="G15" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
       <c r="K15" s="32"/>
       <c r="L15" s="60"/>
       <c r="M15" s="32"/>
@@ -3851,15 +3870,15 @@
       <c r="D16" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="82" t="str">
+      <c r="E16" s="89"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
@@ -3875,12 +3894,12 @@
         <f>'Senet Taksit Giriş'!D3</f>
         <v>45534</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="30"/>
       <c r="L17" s="43" t="s">
         <v>49</v>
@@ -3897,15 +3916,15 @@
       <c r="D18" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="83" t="str">
+      <c r="E18" s="89"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -3921,15 +3940,15 @@
         <f>'Senet Taksit Giriş'!C3</f>
         <v>45503</v>
       </c>
-      <c r="E19" s="85"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="84" t="str">
+      <c r="E19" s="89"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
       <c r="K19" s="58"/>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
@@ -3998,7 +4017,7 @@
       <c r="D23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="85" t="str">
+      <c r="E23" s="89" t="str">
         <f>$D30 &amp;"    - Taksit No: " &amp; $D25&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 2 #  </v>
       </c>
@@ -4031,7 +4050,7 @@
       <c r="D24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="30"/>
       <c r="G24" s="45">
         <f>D38</f>
@@ -4067,7 +4086,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B4),"##.##0")&amp;" #"</f>
         <v># 2 #</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="89"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
@@ -4087,7 +4106,7 @@
       <c r="D26" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="85"/>
+      <c r="E26" s="89"/>
       <c r="F26" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G24,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F4&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G4&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -4111,7 +4130,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E4),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="89"/>
       <c r="F27" s="86"/>
       <c r="G27" s="86"/>
       <c r="H27" s="86"/>
@@ -4132,7 +4151,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E24-INT('Senet Taksit Giriş'!E24))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="89"/>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
       <c r="H28" s="86"/>
@@ -4152,7 +4171,7 @@
       <c r="D29" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="86"/>
       <c r="G29" s="86"/>
       <c r="H29" s="86"/>
@@ -4169,11 +4188,11 @@
       <c r="A30" s="30"/>
       <c r="B30" s="55"/>
       <c r="C30" s="30"/>
-      <c r="D30" s="78" t="str">
+      <c r="D30" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="89"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
@@ -4190,22 +4209,22 @@
       <c r="A31" s="30"/>
       <c r="B31" s="42"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="79" t="s">
+      <c r="D31" s="79"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="80" t="str">
+      <c r="G31" s="88" t="str">
         <f>"İsim : "&amp;$D30</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
       <c r="K31" s="32"/>
       <c r="L31" s="32"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
       <c r="O31" s="33"/>
       <c r="P31" s="51"/>
     </row>
@@ -4213,17 +4232,17 @@
       <c r="A32" s="30"/>
       <c r="B32" s="56"/>
       <c r="C32" s="57"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="82" t="str">
+      <c r="D32" s="79"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
@@ -4234,14 +4253,14 @@
       <c r="A33" s="30"/>
       <c r="B33" s="56"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="43" t="s">
         <v>49</v>
       </c>
@@ -4254,16 +4273,16 @@
       <c r="A34" s="30"/>
       <c r="B34" s="56"/>
       <c r="C34" s="57"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="83" t="str">
+      <c r="D34" s="79"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
@@ -4275,16 +4294,16 @@
       <c r="A35" s="30"/>
       <c r="B35" s="42"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="84" t="str">
+      <c r="D35" s="79"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
       <c r="K35" s="58"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
@@ -4296,18 +4315,18 @@
       <c r="A36" s="30"/>
       <c r="B36" s="55"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="79" t="s">
+      <c r="D36" s="79"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="80" t="str">
+      <c r="G36" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
       <c r="K36" s="32"/>
       <c r="L36" s="60"/>
       <c r="M36" s="32"/>
@@ -4322,15 +4341,15 @@
       <c r="D37" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="82" t="str">
+      <c r="E37" s="89"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="83"/>
+      <c r="J37" s="83"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
@@ -4346,12 +4365,12 @@
         <f>'Senet Taksit Giriş'!D4</f>
         <v>45565</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
       <c r="K38" s="30"/>
       <c r="L38" s="43" t="s">
         <v>49</v>
@@ -4368,15 +4387,15 @@
       <c r="D39" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="83" t="str">
+      <c r="E39" s="89"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -4392,15 +4411,15 @@
         <f>'Senet Taksit Giriş'!C4</f>
         <v>45503</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="84" t="str">
+      <c r="E40" s="89"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
       <c r="K40" s="58"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
@@ -4451,7 +4470,7 @@
       <c r="D44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="85" t="str">
+      <c r="E44" s="89" t="str">
         <f>$D51 &amp;"    - Taksit No: " &amp; $D46&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 3 #  </v>
       </c>
@@ -4484,7 +4503,7 @@
       <c r="D45" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="85"/>
+      <c r="E45" s="89"/>
       <c r="F45" s="30"/>
       <c r="G45" s="45">
         <f>D59</f>
@@ -4520,7 +4539,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B5),"##.##0")&amp;" #"</f>
         <v># 3 #</v>
       </c>
-      <c r="E46" s="85"/>
+      <c r="E46" s="89"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
@@ -4540,7 +4559,7 @@
       <c r="D47" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="85"/>
+      <c r="E47" s="89"/>
       <c r="F47" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G45,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F5&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G5&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -4564,7 +4583,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E5),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E48" s="85"/>
+      <c r="E48" s="89"/>
       <c r="F48" s="86"/>
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
@@ -4585,7 +4604,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E46-INT('Senet Taksit Giriş'!E46))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E49" s="85"/>
+      <c r="E49" s="89"/>
       <c r="F49" s="86"/>
       <c r="G49" s="86"/>
       <c r="H49" s="86"/>
@@ -4605,7 +4624,7 @@
       <c r="D50" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="85"/>
+      <c r="E50" s="89"/>
       <c r="F50" s="86"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -4622,11 +4641,11 @@
       <c r="A51" s="30"/>
       <c r="B51" s="55"/>
       <c r="C51" s="30"/>
-      <c r="D51" s="78" t="str">
+      <c r="D51" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E51" s="85"/>
+      <c r="E51" s="89"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
@@ -4643,22 +4662,22 @@
       <c r="A52" s="30"/>
       <c r="B52" s="42"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="78"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="79" t="s">
+      <c r="D52" s="79"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="80" t="str">
+      <c r="G52" s="88" t="str">
         <f>"İsim : "&amp;$D51</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="88"/>
       <c r="K52" s="32"/>
       <c r="L52" s="32"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="82"/>
       <c r="O52" s="33"/>
       <c r="P52" s="51"/>
     </row>
@@ -4666,17 +4685,17 @@
       <c r="A53" s="30"/>
       <c r="B53" s="56"/>
       <c r="C53" s="57"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="82" t="str">
+      <c r="D53" s="79"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H53" s="82"/>
-      <c r="I53" s="82"/>
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="83"/>
+      <c r="J53" s="83"/>
+      <c r="K53" s="83"/>
       <c r="L53" s="30"/>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -4687,14 +4706,14 @@
       <c r="A54" s="30"/>
       <c r="B54" s="56"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="82"/>
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
+      <c r="J54" s="83"/>
+      <c r="K54" s="83"/>
       <c r="L54" s="43" t="s">
         <v>49</v>
       </c>
@@ -4707,16 +4726,16 @@
       <c r="A55" s="30"/>
       <c r="B55" s="56"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="83" t="str">
+      <c r="D55" s="79"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
       <c r="M55" s="30"/>
@@ -4728,16 +4747,16 @@
       <c r="A56" s="30"/>
       <c r="B56" s="42"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="84" t="str">
+      <c r="D56" s="79"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
       <c r="K56" s="58"/>
       <c r="L56" s="58"/>
       <c r="M56" s="58"/>
@@ -4749,18 +4768,18 @@
       <c r="A57" s="30"/>
       <c r="B57" s="55"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="79" t="s">
+      <c r="D57" s="79"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="80" t="str">
+      <c r="G57" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
       <c r="K57" s="32"/>
       <c r="L57" s="60"/>
       <c r="M57" s="32"/>
@@ -4775,15 +4794,15 @@
       <c r="D58" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="85"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="82" t="str">
+      <c r="E58" s="89"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H58" s="82"/>
-      <c r="I58" s="82"/>
-      <c r="J58" s="82"/>
+      <c r="H58" s="83"/>
+      <c r="I58" s="83"/>
+      <c r="J58" s="83"/>
       <c r="K58" s="30"/>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
@@ -4799,12 +4818,12 @@
         <f>'Senet Taksit Giriş'!D5</f>
         <v>45595</v>
       </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="82"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="82"/>
-      <c r="J59" s="82"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
+      <c r="J59" s="83"/>
       <c r="K59" s="30"/>
       <c r="L59" s="43" t="s">
         <v>49</v>
@@ -4821,15 +4840,15 @@
       <c r="D60" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="85"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="83" t="str">
+      <c r="E60" s="89"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="84"/>
       <c r="K60" s="30"/>
       <c r="L60" s="30"/>
       <c r="M60" s="30"/>
@@ -4845,15 +4864,15 @@
         <f>'Senet Taksit Giriş'!C5</f>
         <v>45503</v>
       </c>
-      <c r="E61" s="85"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="84" t="str">
+      <c r="E61" s="89"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
-      <c r="J61" s="84"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
       <c r="K61" s="58"/>
       <c r="L61" s="58"/>
       <c r="M61" s="58"/>
@@ -4904,7 +4923,7 @@
       <c r="D64" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="85" t="str">
+      <c r="E64" s="89" t="str">
         <f>$D71 &amp;"    - Taksit No: " &amp; $D66&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 4 #  </v>
       </c>
@@ -4937,7 +4956,7 @@
       <c r="D65" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="85"/>
+      <c r="E65" s="89"/>
       <c r="F65" s="30"/>
       <c r="G65" s="45">
         <f>D79</f>
@@ -4973,7 +4992,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B6),"##.##0")&amp;" #"</f>
         <v># 4 #</v>
       </c>
-      <c r="E66" s="85"/>
+      <c r="E66" s="89"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
@@ -4993,7 +5012,7 @@
       <c r="D67" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="85"/>
+      <c r="E67" s="89"/>
       <c r="F67" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G65,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F6&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G6&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -5017,7 +5036,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E6),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E68" s="85"/>
+      <c r="E68" s="89"/>
       <c r="F68" s="86"/>
       <c r="G68" s="86"/>
       <c r="H68" s="86"/>
@@ -5038,7 +5057,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E68-INT('Senet Taksit Giriş'!E68))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E69" s="85"/>
+      <c r="E69" s="89"/>
       <c r="F69" s="86"/>
       <c r="G69" s="86"/>
       <c r="H69" s="86"/>
@@ -5058,7 +5077,7 @@
       <c r="D70" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="85"/>
+      <c r="E70" s="89"/>
       <c r="F70" s="86"/>
       <c r="G70" s="86"/>
       <c r="H70" s="86"/>
@@ -5075,11 +5094,11 @@
       <c r="A71" s="30"/>
       <c r="B71" s="55"/>
       <c r="C71" s="30"/>
-      <c r="D71" s="78" t="str">
+      <c r="D71" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E71" s="85"/>
+      <c r="E71" s="89"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
@@ -5096,22 +5115,22 @@
       <c r="A72" s="30"/>
       <c r="B72" s="42"/>
       <c r="C72" s="30"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="79" t="s">
+      <c r="D72" s="79"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G72" s="80" t="str">
+      <c r="G72" s="88" t="str">
         <f>"İsim : "&amp;$D71</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H72" s="80"/>
-      <c r="I72" s="80"/>
-      <c r="J72" s="80"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="88"/>
       <c r="K72" s="32"/>
       <c r="L72" s="32"/>
-      <c r="M72" s="81"/>
-      <c r="N72" s="81"/>
+      <c r="M72" s="82"/>
+      <c r="N72" s="82"/>
       <c r="O72" s="33"/>
       <c r="P72" s="51"/>
     </row>
@@ -5119,17 +5138,17 @@
       <c r="A73" s="30"/>
       <c r="B73" s="56"/>
       <c r="C73" s="57"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="82" t="str">
+      <c r="D73" s="79"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="80"/>
+      <c r="G73" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="83"/>
+      <c r="K73" s="83"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
       <c r="N73" s="30"/>
@@ -5140,14 +5159,14 @@
       <c r="A74" s="30"/>
       <c r="B74" s="56"/>
       <c r="C74" s="57"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="82"/>
-      <c r="H74" s="82"/>
-      <c r="I74" s="82"/>
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="80"/>
+      <c r="G74" s="83"/>
+      <c r="H74" s="83"/>
+      <c r="I74" s="83"/>
+      <c r="J74" s="83"/>
+      <c r="K74" s="83"/>
       <c r="L74" s="43" t="s">
         <v>49</v>
       </c>
@@ -5160,16 +5179,16 @@
       <c r="A75" s="30"/>
       <c r="B75" s="56"/>
       <c r="C75" s="57"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="83" t="str">
+      <c r="D75" s="79"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -5181,16 +5200,16 @@
       <c r="A76" s="30"/>
       <c r="B76" s="42"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="84" t="str">
+      <c r="D76" s="79"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
-      <c r="J76" s="84"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
       <c r="K76" s="58"/>
       <c r="L76" s="58"/>
       <c r="M76" s="58"/>
@@ -5202,18 +5221,18 @@
       <c r="A77" s="30"/>
       <c r="B77" s="55"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="79" t="s">
+      <c r="D77" s="79"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G77" s="80" t="str">
+      <c r="G77" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="88"/>
+      <c r="J77" s="88"/>
       <c r="K77" s="32"/>
       <c r="L77" s="60"/>
       <c r="M77" s="32"/>
@@ -5228,15 +5247,15 @@
       <c r="D78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="82" t="str">
+      <c r="E78" s="89"/>
+      <c r="F78" s="80"/>
+      <c r="G78" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
-      <c r="J78" s="82"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
       <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
@@ -5252,12 +5271,12 @@
         <f>'Senet Taksit Giriş'!D6</f>
         <v>45626</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="82"/>
-      <c r="J79" s="82"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="83"/>
+      <c r="H79" s="83"/>
+      <c r="I79" s="83"/>
+      <c r="J79" s="83"/>
       <c r="K79" s="30"/>
       <c r="L79" s="43" t="s">
         <v>49</v>
@@ -5274,15 +5293,15 @@
       <c r="D80" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E80" s="85"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="83" t="str">
+      <c r="E80" s="89"/>
+      <c r="F80" s="80"/>
+      <c r="G80" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
       <c r="K80" s="30"/>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
@@ -5298,15 +5317,15 @@
         <f>'Senet Taksit Giriş'!C6</f>
         <v>45503</v>
       </c>
-      <c r="E81" s="85"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="84" t="str">
+      <c r="E81" s="89"/>
+      <c r="F81" s="80"/>
+      <c r="G81" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
-      <c r="J81" s="84"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
       <c r="K81" s="58"/>
       <c r="L81" s="58"/>
       <c r="M81" s="58"/>
@@ -5357,7 +5376,7 @@
       <c r="D85" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="85" t="str">
+      <c r="E85" s="89" t="str">
         <f>$D92 &amp;"    - Taksit No: " &amp; $D87&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 5 #  </v>
       </c>
@@ -5390,7 +5409,7 @@
       <c r="D86" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E86" s="85"/>
+      <c r="E86" s="89"/>
       <c r="F86" s="30"/>
       <c r="G86" s="45">
         <f>D100</f>
@@ -5426,7 +5445,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B7),"##.##0")&amp;" #"</f>
         <v># 5 #</v>
       </c>
-      <c r="E87" s="85"/>
+      <c r="E87" s="89"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
@@ -5446,7 +5465,7 @@
       <c r="D88" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E88" s="85"/>
+      <c r="E88" s="89"/>
       <c r="F88" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G86,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F7&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G7&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2024 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -5470,7 +5489,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E7),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E89" s="85"/>
+      <c r="E89" s="89"/>
       <c r="F89" s="86"/>
       <c r="G89" s="86"/>
       <c r="H89" s="86"/>
@@ -5491,7 +5510,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E90-INT('Senet Taksit Giriş'!E90))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E90" s="85"/>
+      <c r="E90" s="89"/>
       <c r="F90" s="86"/>
       <c r="G90" s="86"/>
       <c r="H90" s="86"/>
@@ -5511,7 +5530,7 @@
       <c r="D91" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="85"/>
+      <c r="E91" s="89"/>
       <c r="F91" s="86"/>
       <c r="G91" s="86"/>
       <c r="H91" s="86"/>
@@ -5528,11 +5547,11 @@
       <c r="A92" s="30"/>
       <c r="B92" s="55"/>
       <c r="C92" s="30"/>
-      <c r="D92" s="78" t="str">
+      <c r="D92" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E92" s="85"/>
+      <c r="E92" s="89"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
@@ -5549,22 +5568,22 @@
       <c r="A93" s="30"/>
       <c r="B93" s="42"/>
       <c r="C93" s="30"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="79" t="s">
+      <c r="D93" s="79"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G93" s="80" t="str">
+      <c r="G93" s="88" t="str">
         <f>"İsim : "&amp;$D92</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H93" s="80"/>
-      <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
+      <c r="H93" s="88"/>
+      <c r="I93" s="88"/>
+      <c r="J93" s="88"/>
       <c r="K93" s="32"/>
       <c r="L93" s="32"/>
-      <c r="M93" s="81"/>
-      <c r="N93" s="81"/>
+      <c r="M93" s="82"/>
+      <c r="N93" s="82"/>
       <c r="O93" s="33"/>
       <c r="P93" s="51"/>
     </row>
@@ -5572,17 +5591,17 @@
       <c r="A94" s="30"/>
       <c r="B94" s="56"/>
       <c r="C94" s="57"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="82" t="str">
+      <c r="D94" s="79"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="83"/>
+      <c r="J94" s="83"/>
+      <c r="K94" s="83"/>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
       <c r="N94" s="30"/>
@@ -5593,14 +5612,14 @@
       <c r="A95" s="30"/>
       <c r="B95" s="56"/>
       <c r="C95" s="57"/>
-      <c r="D95" s="78"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+      <c r="I95" s="83"/>
+      <c r="J95" s="83"/>
+      <c r="K95" s="83"/>
       <c r="L95" s="43" t="s">
         <v>49</v>
       </c>
@@ -5613,16 +5632,16 @@
       <c r="A96" s="30"/>
       <c r="B96" s="56"/>
       <c r="C96" s="57"/>
-      <c r="D96" s="78"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="83" t="str">
+      <c r="D96" s="79"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="84"/>
+      <c r="J96" s="84"/>
       <c r="K96" s="30"/>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
@@ -5634,16 +5653,16 @@
       <c r="A97" s="30"/>
       <c r="B97" s="42"/>
       <c r="C97" s="30"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="84" t="str">
+      <c r="D97" s="79"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="84"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
       <c r="K97" s="58"/>
       <c r="L97" s="58"/>
       <c r="M97" s="58"/>
@@ -5655,18 +5674,18 @@
       <c r="A98" s="30"/>
       <c r="B98" s="55"/>
       <c r="C98" s="30"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="79" t="s">
+      <c r="D98" s="79"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G98" s="80" t="str">
+      <c r="G98" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H98" s="80"/>
-      <c r="I98" s="80"/>
-      <c r="J98" s="80"/>
+      <c r="H98" s="88"/>
+      <c r="I98" s="88"/>
+      <c r="J98" s="88"/>
       <c r="K98" s="32"/>
       <c r="L98" s="60"/>
       <c r="M98" s="32"/>
@@ -5681,15 +5700,15 @@
       <c r="D99" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="85"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="82" t="str">
+      <c r="E99" s="89"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
-      <c r="J99" s="82"/>
+      <c r="H99" s="83"/>
+      <c r="I99" s="83"/>
+      <c r="J99" s="83"/>
       <c r="K99" s="30"/>
       <c r="L99" s="30"/>
       <c r="M99" s="30"/>
@@ -5705,12 +5724,12 @@
         <f>'Senet Taksit Giriş'!D7</f>
         <v>45656</v>
       </c>
-      <c r="E100" s="85"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="82"/>
-      <c r="J100" s="82"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+      <c r="I100" s="83"/>
+      <c r="J100" s="83"/>
       <c r="K100" s="30"/>
       <c r="L100" s="43" t="s">
         <v>49</v>
@@ -5727,15 +5746,15 @@
       <c r="D101" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="83" t="str">
+      <c r="E101" s="89"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H101" s="83"/>
-      <c r="I101" s="83"/>
-      <c r="J101" s="83"/>
+      <c r="H101" s="84"/>
+      <c r="I101" s="84"/>
+      <c r="J101" s="84"/>
       <c r="K101" s="30"/>
       <c r="L101" s="30"/>
       <c r="M101" s="30"/>
@@ -5751,15 +5770,15 @@
         <f>'Senet Taksit Giriş'!C7</f>
         <v>45503</v>
       </c>
-      <c r="E102" s="85"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="84" t="str">
+      <c r="E102" s="89"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H102" s="84"/>
-      <c r="I102" s="84"/>
-      <c r="J102" s="84"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
       <c r="K102" s="58"/>
       <c r="L102" s="58"/>
       <c r="M102" s="58"/>
@@ -5810,7 +5829,7 @@
       <c r="D106" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="85" t="str">
+      <c r="E106" s="89" t="str">
         <f>$D113 &amp;"    - Taksit No: " &amp; $D108&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 6 #  </v>
       </c>
@@ -5843,7 +5862,7 @@
       <c r="D107" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="85"/>
+      <c r="E107" s="89"/>
       <c r="F107" s="30"/>
       <c r="G107" s="45">
         <f>D121</f>
@@ -5879,7 +5898,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B8),"##.##0")&amp;" #"</f>
         <v># 6 #</v>
       </c>
-      <c r="E108" s="85"/>
+      <c r="E108" s="89"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
@@ -5899,7 +5918,7 @@
       <c r="D109" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E109" s="85"/>
+      <c r="E109" s="89"/>
       <c r="F109" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G107,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F8&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G8&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -5923,7 +5942,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E8),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E110" s="85"/>
+      <c r="E110" s="89"/>
       <c r="F110" s="86"/>
       <c r="G110" s="86"/>
       <c r="H110" s="86"/>
@@ -5944,7 +5963,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E111-INT('Senet Taksit Giriş'!E111))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E111" s="85"/>
+      <c r="E111" s="89"/>
       <c r="F111" s="86"/>
       <c r="G111" s="86"/>
       <c r="H111" s="86"/>
@@ -5964,7 +5983,7 @@
       <c r="D112" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E112" s="85"/>
+      <c r="E112" s="89"/>
       <c r="F112" s="86"/>
       <c r="G112" s="86"/>
       <c r="H112" s="86"/>
@@ -5981,11 +6000,11 @@
       <c r="A113" s="30"/>
       <c r="B113" s="55"/>
       <c r="C113" s="30"/>
-      <c r="D113" s="78" t="str">
+      <c r="D113" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E113" s="85"/>
+      <c r="E113" s="89"/>
       <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
@@ -6002,22 +6021,22 @@
       <c r="A114" s="30"/>
       <c r="B114" s="42"/>
       <c r="C114" s="30"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="79" t="s">
+      <c r="D114" s="79"/>
+      <c r="E114" s="89"/>
+      <c r="F114" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G114" s="80" t="str">
+      <c r="G114" s="88" t="str">
         <f>"İsim : "&amp;$D113</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H114" s="80"/>
-      <c r="I114" s="80"/>
-      <c r="J114" s="80"/>
+      <c r="H114" s="88"/>
+      <c r="I114" s="88"/>
+      <c r="J114" s="88"/>
       <c r="K114" s="32"/>
       <c r="L114" s="32"/>
-      <c r="M114" s="81"/>
-      <c r="N114" s="81"/>
+      <c r="M114" s="82"/>
+      <c r="N114" s="82"/>
       <c r="O114" s="33"/>
       <c r="P114" s="51"/>
     </row>
@@ -6025,17 +6044,17 @@
       <c r="A115" s="30"/>
       <c r="B115" s="56"/>
       <c r="C115" s="57"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="82" t="str">
+      <c r="D115" s="79"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H115" s="82"/>
-      <c r="I115" s="82"/>
-      <c r="J115" s="82"/>
-      <c r="K115" s="82"/>
+      <c r="H115" s="83"/>
+      <c r="I115" s="83"/>
+      <c r="J115" s="83"/>
+      <c r="K115" s="83"/>
       <c r="L115" s="30"/>
       <c r="M115" s="30"/>
       <c r="N115" s="30"/>
@@ -6046,14 +6065,14 @@
       <c r="A116" s="30"/>
       <c r="B116" s="56"/>
       <c r="C116" s="57"/>
-      <c r="D116" s="78"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="82"/>
-      <c r="H116" s="82"/>
-      <c r="I116" s="82"/>
-      <c r="J116" s="82"/>
-      <c r="K116" s="82"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
+      <c r="I116" s="83"/>
+      <c r="J116" s="83"/>
+      <c r="K116" s="83"/>
       <c r="L116" s="43" t="s">
         <v>49</v>
       </c>
@@ -6066,16 +6085,16 @@
       <c r="A117" s="30"/>
       <c r="B117" s="56"/>
       <c r="C117" s="57"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="83" t="str">
+      <c r="D117" s="79"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="84"/>
       <c r="K117" s="30"/>
       <c r="L117" s="30"/>
       <c r="M117" s="30"/>
@@ -6087,16 +6106,16 @@
       <c r="A118" s="30"/>
       <c r="B118" s="42"/>
       <c r="C118" s="30"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="84" t="str">
+      <c r="D118" s="79"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H118" s="84"/>
-      <c r="I118" s="84"/>
-      <c r="J118" s="84"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
       <c r="K118" s="58"/>
       <c r="L118" s="58"/>
       <c r="M118" s="58"/>
@@ -6108,18 +6127,18 @@
       <c r="A119" s="30"/>
       <c r="B119" s="55"/>
       <c r="C119" s="30"/>
-      <c r="D119" s="78"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="79" t="s">
+      <c r="D119" s="79"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G119" s="80" t="str">
+      <c r="G119" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H119" s="80"/>
-      <c r="I119" s="80"/>
-      <c r="J119" s="80"/>
+      <c r="H119" s="88"/>
+      <c r="I119" s="88"/>
+      <c r="J119" s="88"/>
       <c r="K119" s="32"/>
       <c r="L119" s="60"/>
       <c r="M119" s="32"/>
@@ -6134,15 +6153,15 @@
       <c r="D120" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="82" t="str">
+      <c r="E120" s="89"/>
+      <c r="F120" s="80"/>
+      <c r="G120" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82"/>
+      <c r="H120" s="83"/>
+      <c r="I120" s="83"/>
+      <c r="J120" s="83"/>
       <c r="K120" s="30"/>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
@@ -6158,12 +6177,12 @@
         <f>'Senet Taksit Giriş'!D8</f>
         <v>45687</v>
       </c>
-      <c r="E121" s="85"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-      <c r="I121" s="82"/>
-      <c r="J121" s="82"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="80"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="83"/>
+      <c r="J121" s="83"/>
       <c r="K121" s="30"/>
       <c r="L121" s="43" t="s">
         <v>49</v>
@@ -6180,15 +6199,15 @@
       <c r="D122" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E122" s="85"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="83" t="str">
+      <c r="E122" s="89"/>
+      <c r="F122" s="80"/>
+      <c r="G122" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-      <c r="J122" s="83"/>
+      <c r="H122" s="84"/>
+      <c r="I122" s="84"/>
+      <c r="J122" s="84"/>
       <c r="K122" s="30"/>
       <c r="L122" s="30"/>
       <c r="M122" s="30"/>
@@ -6204,15 +6223,15 @@
         <f>'Senet Taksit Giriş'!C8</f>
         <v>45503</v>
       </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="84" t="str">
+      <c r="E123" s="89"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H123" s="84"/>
-      <c r="I123" s="84"/>
-      <c r="J123" s="84"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
       <c r="K123" s="58"/>
       <c r="L123" s="58"/>
       <c r="M123" s="58"/>
@@ -6263,7 +6282,7 @@
       <c r="D126" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E126" s="85" t="str">
+      <c r="E126" s="89" t="str">
         <f>$D133 &amp;"    - Taksit No: " &amp; $D128&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 7 #  </v>
       </c>
@@ -6296,7 +6315,7 @@
       <c r="D127" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="85"/>
+      <c r="E127" s="89"/>
       <c r="F127" s="30"/>
       <c r="G127" s="45">
         <f>D141</f>
@@ -6332,7 +6351,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B9),"##.##0")&amp;" #"</f>
         <v># 7 #</v>
       </c>
-      <c r="E128" s="85"/>
+      <c r="E128" s="89"/>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
       <c r="H128" s="30"/>
@@ -6352,7 +6371,7 @@
       <c r="D129" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E129" s="85"/>
+      <c r="E129" s="89"/>
       <c r="F129" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G127,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F9&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G9&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -6376,7 +6395,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E9),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E130" s="85"/>
+      <c r="E130" s="89"/>
       <c r="F130" s="86"/>
       <c r="G130" s="86"/>
       <c r="H130" s="86"/>
@@ -6397,7 +6416,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E132-INT('Senet Taksit Giriş'!E132))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E131" s="85"/>
+      <c r="E131" s="89"/>
       <c r="F131" s="86"/>
       <c r="G131" s="86"/>
       <c r="H131" s="86"/>
@@ -6417,7 +6436,7 @@
       <c r="D132" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E132" s="85"/>
+      <c r="E132" s="89"/>
       <c r="F132" s="86"/>
       <c r="G132" s="86"/>
       <c r="H132" s="86"/>
@@ -6434,11 +6453,11 @@
       <c r="A133" s="30"/>
       <c r="B133" s="55"/>
       <c r="C133" s="30"/>
-      <c r="D133" s="78" t="str">
+      <c r="D133" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E133" s="85"/>
+      <c r="E133" s="89"/>
       <c r="F133"/>
       <c r="G133"/>
       <c r="H133"/>
@@ -6455,22 +6474,22 @@
       <c r="A134" s="30"/>
       <c r="B134" s="42"/>
       <c r="C134" s="30"/>
-      <c r="D134" s="78"/>
-      <c r="E134" s="85"/>
-      <c r="F134" s="79" t="s">
+      <c r="D134" s="79"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G134" s="80" t="str">
+      <c r="G134" s="88" t="str">
         <f>"İsim : "&amp;$D133</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H134" s="80"/>
-      <c r="I134" s="80"/>
-      <c r="J134" s="80"/>
+      <c r="H134" s="88"/>
+      <c r="I134" s="88"/>
+      <c r="J134" s="88"/>
       <c r="K134" s="32"/>
       <c r="L134" s="32"/>
-      <c r="M134" s="81"/>
-      <c r="N134" s="81"/>
+      <c r="M134" s="82"/>
+      <c r="N134" s="82"/>
       <c r="O134" s="33"/>
       <c r="P134" s="51"/>
     </row>
@@ -6478,17 +6497,17 @@
       <c r="A135" s="30"/>
       <c r="B135" s="56"/>
       <c r="C135" s="57"/>
-      <c r="D135" s="78"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="82" t="str">
+      <c r="D135" s="79"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="80"/>
+      <c r="G135" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H135" s="82"/>
-      <c r="I135" s="82"/>
-      <c r="J135" s="82"/>
-      <c r="K135" s="82"/>
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="83"/>
       <c r="L135" s="30"/>
       <c r="M135" s="30"/>
       <c r="N135" s="30"/>
@@ -6499,14 +6518,14 @@
       <c r="A136" s="30"/>
       <c r="B136" s="56"/>
       <c r="C136" s="57"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="82"/>
-      <c r="I136" s="82"/>
-      <c r="J136" s="82"/>
-      <c r="K136" s="82"/>
+      <c r="D136" s="79"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="83"/>
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="83"/>
       <c r="L136" s="43" t="s">
         <v>49</v>
       </c>
@@ -6519,16 +6538,16 @@
       <c r="A137" s="30"/>
       <c r="B137" s="56"/>
       <c r="C137" s="57"/>
-      <c r="D137" s="78"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="83" t="str">
+      <c r="D137" s="79"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H137" s="83"/>
-      <c r="I137" s="83"/>
-      <c r="J137" s="83"/>
+      <c r="H137" s="84"/>
+      <c r="I137" s="84"/>
+      <c r="J137" s="84"/>
       <c r="K137" s="30"/>
       <c r="L137" s="30"/>
       <c r="M137" s="30"/>
@@ -6540,16 +6559,16 @@
       <c r="A138" s="30"/>
       <c r="B138" s="42"/>
       <c r="C138" s="30"/>
-      <c r="D138" s="78"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="84" t="str">
+      <c r="D138" s="79"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H138" s="84"/>
-      <c r="I138" s="84"/>
-      <c r="J138" s="84"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="85"/>
       <c r="K138" s="58"/>
       <c r="L138" s="58"/>
       <c r="M138" s="58"/>
@@ -6561,18 +6580,18 @@
       <c r="A139" s="30"/>
       <c r="B139" s="55"/>
       <c r="C139" s="30"/>
-      <c r="D139" s="78"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="79" t="s">
+      <c r="D139" s="79"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="80" t="str">
+      <c r="G139" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H139" s="80"/>
-      <c r="I139" s="80"/>
-      <c r="J139" s="80"/>
+      <c r="H139" s="88"/>
+      <c r="I139" s="88"/>
+      <c r="J139" s="88"/>
       <c r="K139" s="32"/>
       <c r="L139" s="60"/>
       <c r="M139" s="32"/>
@@ -6587,15 +6606,15 @@
       <c r="D140" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E140" s="85"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="82" t="str">
+      <c r="E140" s="89"/>
+      <c r="F140" s="80"/>
+      <c r="G140" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H140" s="82"/>
-      <c r="I140" s="82"/>
-      <c r="J140" s="82"/>
+      <c r="H140" s="83"/>
+      <c r="I140" s="83"/>
+      <c r="J140" s="83"/>
       <c r="K140" s="30"/>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
@@ -6611,12 +6630,12 @@
         <f>'Senet Taksit Giriş'!D9</f>
         <v>45716</v>
       </c>
-      <c r="E141" s="85"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="82"/>
-      <c r="H141" s="82"/>
-      <c r="I141" s="82"/>
-      <c r="J141" s="82"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="83"/>
+      <c r="H141" s="83"/>
+      <c r="I141" s="83"/>
+      <c r="J141" s="83"/>
       <c r="K141" s="30"/>
       <c r="L141" s="43" t="s">
         <v>49</v>
@@ -6633,15 +6652,15 @@
       <c r="D142" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E142" s="85"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="83" t="str">
+      <c r="E142" s="89"/>
+      <c r="F142" s="80"/>
+      <c r="G142" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H142" s="83"/>
-      <c r="I142" s="83"/>
-      <c r="J142" s="83"/>
+      <c r="H142" s="84"/>
+      <c r="I142" s="84"/>
+      <c r="J142" s="84"/>
       <c r="K142" s="30"/>
       <c r="L142" s="30"/>
       <c r="M142" s="30"/>
@@ -6657,15 +6676,15 @@
         <f>'Senet Taksit Giriş'!C9</f>
         <v>45503</v>
       </c>
-      <c r="E143" s="85"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="84" t="str">
+      <c r="E143" s="89"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H143" s="84"/>
-      <c r="I143" s="84"/>
-      <c r="J143" s="84"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="85"/>
       <c r="K143" s="58"/>
       <c r="L143" s="58"/>
       <c r="M143" s="58"/>
@@ -6716,7 +6735,7 @@
       <c r="D147" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E147" s="85" t="str">
+      <c r="E147" s="89" t="str">
         <f>$D154 &amp;"    - Taksit No: " &amp; $D149&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 8 #  </v>
       </c>
@@ -6749,7 +6768,7 @@
       <c r="D148" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E148" s="85"/>
+      <c r="E148" s="89"/>
       <c r="F148" s="30"/>
       <c r="G148" s="45">
         <f>D162</f>
@@ -6785,7 +6804,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B10),"##.##0")&amp;" #"</f>
         <v># 8 #</v>
       </c>
-      <c r="E149" s="85"/>
+      <c r="E149" s="89"/>
       <c r="F149" s="30"/>
       <c r="G149" s="30"/>
       <c r="H149" s="30"/>
@@ -6805,7 +6824,7 @@
       <c r="D150" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="85"/>
+      <c r="E150" s="89"/>
       <c r="F150" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G148,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F10&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G10&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -6829,7 +6848,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E10),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E151" s="85"/>
+      <c r="E151" s="89"/>
       <c r="F151" s="86"/>
       <c r="G151" s="86"/>
       <c r="H151" s="86"/>
@@ -6850,7 +6869,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E153-INT('Senet Taksit Giriş'!E153))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E152" s="85"/>
+      <c r="E152" s="89"/>
       <c r="F152" s="86"/>
       <c r="G152" s="86"/>
       <c r="H152" s="86"/>
@@ -6870,7 +6889,7 @@
       <c r="D153" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E153" s="85"/>
+      <c r="E153" s="89"/>
       <c r="F153" s="86"/>
       <c r="G153" s="86"/>
       <c r="H153" s="86"/>
@@ -6887,11 +6906,11 @@
       <c r="A154" s="30"/>
       <c r="B154" s="55"/>
       <c r="C154" s="30"/>
-      <c r="D154" s="78" t="str">
+      <c r="D154" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E154" s="85"/>
+      <c r="E154" s="89"/>
       <c r="F154"/>
       <c r="G154"/>
       <c r="H154"/>
@@ -6908,22 +6927,22 @@
       <c r="A155" s="30"/>
       <c r="B155" s="42"/>
       <c r="C155" s="30"/>
-      <c r="D155" s="78"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="79" t="s">
+      <c r="D155" s="79"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G155" s="80" t="str">
+      <c r="G155" s="88" t="str">
         <f>"İsim : "&amp;$D154</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H155" s="80"/>
-      <c r="I155" s="80"/>
-      <c r="J155" s="80"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="88"/>
       <c r="K155" s="32"/>
       <c r="L155" s="32"/>
-      <c r="M155" s="81"/>
-      <c r="N155" s="81"/>
+      <c r="M155" s="82"/>
+      <c r="N155" s="82"/>
       <c r="O155" s="33"/>
       <c r="P155" s="51"/>
     </row>
@@ -6931,17 +6950,17 @@
       <c r="A156" s="30"/>
       <c r="B156" s="56"/>
       <c r="C156" s="57"/>
-      <c r="D156" s="78"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="82" t="str">
+      <c r="D156" s="79"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="80"/>
+      <c r="G156" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H156" s="82"/>
-      <c r="I156" s="82"/>
-      <c r="J156" s="82"/>
-      <c r="K156" s="82"/>
+      <c r="H156" s="83"/>
+      <c r="I156" s="83"/>
+      <c r="J156" s="83"/>
+      <c r="K156" s="83"/>
       <c r="L156" s="30"/>
       <c r="M156" s="30"/>
       <c r="N156" s="30"/>
@@ -6952,14 +6971,14 @@
       <c r="A157" s="30"/>
       <c r="B157" s="56"/>
       <c r="C157" s="57"/>
-      <c r="D157" s="78"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="82"/>
-      <c r="H157" s="82"/>
-      <c r="I157" s="82"/>
-      <c r="J157" s="82"/>
-      <c r="K157" s="82"/>
+      <c r="D157" s="79"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="80"/>
+      <c r="G157" s="83"/>
+      <c r="H157" s="83"/>
+      <c r="I157" s="83"/>
+      <c r="J157" s="83"/>
+      <c r="K157" s="83"/>
       <c r="L157" s="43" t="s">
         <v>49</v>
       </c>
@@ -6972,16 +6991,16 @@
       <c r="A158" s="30"/>
       <c r="B158" s="56"/>
       <c r="C158" s="57"/>
-      <c r="D158" s="78"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="83" t="str">
+      <c r="D158" s="79"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="80"/>
+      <c r="G158" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
+      <c r="H158" s="84"/>
+      <c r="I158" s="84"/>
+      <c r="J158" s="84"/>
       <c r="K158" s="30"/>
       <c r="L158" s="30"/>
       <c r="M158" s="30"/>
@@ -6993,16 +7012,16 @@
       <c r="A159" s="30"/>
       <c r="B159" s="42"/>
       <c r="C159" s="30"/>
-      <c r="D159" s="78"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="84" t="str">
+      <c r="D159" s="79"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="80"/>
+      <c r="G159" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H159" s="84"/>
-      <c r="I159" s="84"/>
-      <c r="J159" s="84"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
       <c r="K159" s="58"/>
       <c r="L159" s="58"/>
       <c r="M159" s="58"/>
@@ -7014,18 +7033,18 @@
       <c r="A160" s="30"/>
       <c r="B160" s="55"/>
       <c r="C160" s="30"/>
-      <c r="D160" s="78"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="79" t="s">
+      <c r="D160" s="79"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G160" s="80" t="str">
+      <c r="G160" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H160" s="80"/>
-      <c r="I160" s="80"/>
-      <c r="J160" s="80"/>
+      <c r="H160" s="88"/>
+      <c r="I160" s="88"/>
+      <c r="J160" s="88"/>
       <c r="K160" s="32"/>
       <c r="L160" s="60"/>
       <c r="M160" s="32"/>
@@ -7040,15 +7059,15 @@
       <c r="D161" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E161" s="85"/>
-      <c r="F161" s="79"/>
-      <c r="G161" s="82" t="str">
+      <c r="E161" s="89"/>
+      <c r="F161" s="80"/>
+      <c r="G161" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H161" s="82"/>
-      <c r="I161" s="82"/>
-      <c r="J161" s="82"/>
+      <c r="H161" s="83"/>
+      <c r="I161" s="83"/>
+      <c r="J161" s="83"/>
       <c r="K161" s="30"/>
       <c r="L161" s="30"/>
       <c r="M161" s="30"/>
@@ -7064,12 +7083,12 @@
         <f>'Senet Taksit Giriş'!D10</f>
         <v>45746</v>
       </c>
-      <c r="E162" s="85"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="82"/>
-      <c r="H162" s="82"/>
-      <c r="I162" s="82"/>
-      <c r="J162" s="82"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="80"/>
+      <c r="G162" s="83"/>
+      <c r="H162" s="83"/>
+      <c r="I162" s="83"/>
+      <c r="J162" s="83"/>
       <c r="K162" s="30"/>
       <c r="L162" s="43" t="s">
         <v>49</v>
@@ -7086,15 +7105,15 @@
       <c r="D163" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E163" s="85"/>
-      <c r="F163" s="79"/>
-      <c r="G163" s="83" t="str">
+      <c r="E163" s="89"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H163" s="83"/>
-      <c r="I163" s="83"/>
-      <c r="J163" s="83"/>
+      <c r="H163" s="84"/>
+      <c r="I163" s="84"/>
+      <c r="J163" s="84"/>
       <c r="K163" s="30"/>
       <c r="L163" s="30"/>
       <c r="M163" s="30"/>
@@ -7110,15 +7129,15 @@
         <f>'Senet Taksit Giriş'!C10</f>
         <v>45503</v>
       </c>
-      <c r="E164" s="85"/>
-      <c r="F164" s="79"/>
-      <c r="G164" s="84" t="str">
+      <c r="E164" s="89"/>
+      <c r="F164" s="80"/>
+      <c r="G164" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H164" s="84"/>
-      <c r="I164" s="84"/>
-      <c r="J164" s="84"/>
+      <c r="H164" s="85"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
       <c r="K164" s="58"/>
       <c r="L164" s="58"/>
       <c r="M164" s="58"/>
@@ -7169,7 +7188,7 @@
       <c r="D168" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E168" s="85" t="str">
+      <c r="E168" s="89" t="str">
         <f>$D175 &amp;"    - Taksit No: " &amp; $D170&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 9 #  </v>
       </c>
@@ -7202,7 +7221,7 @@
       <c r="D169" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E169" s="85"/>
+      <c r="E169" s="89"/>
       <c r="F169" s="30"/>
       <c r="G169" s="45">
         <f>D183</f>
@@ -7238,7 +7257,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B11),"##.##0")&amp;" #"</f>
         <v># 9 #</v>
       </c>
-      <c r="E170" s="85"/>
+      <c r="E170" s="89"/>
       <c r="F170" s="30"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
@@ -7258,7 +7277,7 @@
       <c r="D171" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E171" s="85"/>
+      <c r="E171" s="89"/>
       <c r="F171" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G169,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F11&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G11&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -7282,7 +7301,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E11),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E172" s="85"/>
+      <c r="E172" s="89"/>
       <c r="F172" s="86"/>
       <c r="G172" s="86"/>
       <c r="H172" s="86"/>
@@ -7303,7 +7322,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E174-INT('Senet Taksit Giriş'!E174))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E173" s="85"/>
+      <c r="E173" s="89"/>
       <c r="F173" s="86"/>
       <c r="G173" s="86"/>
       <c r="H173" s="86"/>
@@ -7323,7 +7342,7 @@
       <c r="D174" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E174" s="85"/>
+      <c r="E174" s="89"/>
       <c r="F174" s="86"/>
       <c r="G174" s="86"/>
       <c r="H174" s="86"/>
@@ -7340,11 +7359,11 @@
       <c r="A175" s="30"/>
       <c r="B175" s="55"/>
       <c r="C175" s="30"/>
-      <c r="D175" s="78" t="str">
+      <c r="D175" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E175" s="85"/>
+      <c r="E175" s="89"/>
       <c r="F175"/>
       <c r="G175"/>
       <c r="H175"/>
@@ -7361,22 +7380,22 @@
       <c r="A176" s="30"/>
       <c r="B176" s="42"/>
       <c r="C176" s="30"/>
-      <c r="D176" s="78"/>
-      <c r="E176" s="85"/>
-      <c r="F176" s="79" t="s">
+      <c r="D176" s="79"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G176" s="80" t="str">
+      <c r="G176" s="88" t="str">
         <f>"İsim : "&amp;$D175</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H176" s="80"/>
-      <c r="I176" s="80"/>
-      <c r="J176" s="80"/>
+      <c r="H176" s="88"/>
+      <c r="I176" s="88"/>
+      <c r="J176" s="88"/>
       <c r="K176" s="32"/>
       <c r="L176" s="32"/>
-      <c r="M176" s="81"/>
-      <c r="N176" s="81"/>
+      <c r="M176" s="82"/>
+      <c r="N176" s="82"/>
       <c r="O176" s="33"/>
       <c r="P176" s="51"/>
     </row>
@@ -7384,17 +7403,17 @@
       <c r="A177" s="30"/>
       <c r="B177" s="56"/>
       <c r="C177" s="57"/>
-      <c r="D177" s="78"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="79"/>
-      <c r="G177" s="82" t="str">
+      <c r="D177" s="79"/>
+      <c r="E177" s="89"/>
+      <c r="F177" s="80"/>
+      <c r="G177" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H177" s="82"/>
-      <c r="I177" s="82"/>
-      <c r="J177" s="82"/>
-      <c r="K177" s="82"/>
+      <c r="H177" s="83"/>
+      <c r="I177" s="83"/>
+      <c r="J177" s="83"/>
+      <c r="K177" s="83"/>
       <c r="L177" s="30"/>
       <c r="M177" s="30"/>
       <c r="N177" s="30"/>
@@ -7405,14 +7424,14 @@
       <c r="A178" s="30"/>
       <c r="B178" s="56"/>
       <c r="C178" s="57"/>
-      <c r="D178" s="78"/>
-      <c r="E178" s="85"/>
-      <c r="F178" s="79"/>
-      <c r="G178" s="82"/>
-      <c r="H178" s="82"/>
-      <c r="I178" s="82"/>
-      <c r="J178" s="82"/>
-      <c r="K178" s="82"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="89"/>
+      <c r="F178" s="80"/>
+      <c r="G178" s="83"/>
+      <c r="H178" s="83"/>
+      <c r="I178" s="83"/>
+      <c r="J178" s="83"/>
+      <c r="K178" s="83"/>
       <c r="L178" s="43" t="s">
         <v>49</v>
       </c>
@@ -7425,16 +7444,16 @@
       <c r="A179" s="30"/>
       <c r="B179" s="56"/>
       <c r="C179" s="57"/>
-      <c r="D179" s="78"/>
-      <c r="E179" s="85"/>
-      <c r="F179" s="79"/>
-      <c r="G179" s="83" t="str">
+      <c r="D179" s="79"/>
+      <c r="E179" s="89"/>
+      <c r="F179" s="80"/>
+      <c r="G179" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H179" s="83"/>
-      <c r="I179" s="83"/>
-      <c r="J179" s="83"/>
+      <c r="H179" s="84"/>
+      <c r="I179" s="84"/>
+      <c r="J179" s="84"/>
       <c r="K179" s="30"/>
       <c r="L179" s="30"/>
       <c r="M179" s="30"/>
@@ -7446,16 +7465,16 @@
       <c r="A180" s="30"/>
       <c r="B180" s="42"/>
       <c r="C180" s="30"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="85"/>
-      <c r="F180" s="79"/>
-      <c r="G180" s="84" t="str">
+      <c r="D180" s="79"/>
+      <c r="E180" s="89"/>
+      <c r="F180" s="80"/>
+      <c r="G180" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H180" s="84"/>
-      <c r="I180" s="84"/>
-      <c r="J180" s="84"/>
+      <c r="H180" s="85"/>
+      <c r="I180" s="85"/>
+      <c r="J180" s="85"/>
       <c r="K180" s="58"/>
       <c r="L180" s="58"/>
       <c r="M180" s="58"/>
@@ -7467,18 +7486,18 @@
       <c r="A181" s="30"/>
       <c r="B181" s="55"/>
       <c r="C181" s="30"/>
-      <c r="D181" s="78"/>
-      <c r="E181" s="85"/>
-      <c r="F181" s="79" t="s">
+      <c r="D181" s="79"/>
+      <c r="E181" s="89"/>
+      <c r="F181" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G181" s="80" t="str">
+      <c r="G181" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H181" s="80"/>
-      <c r="I181" s="80"/>
-      <c r="J181" s="80"/>
+      <c r="H181" s="88"/>
+      <c r="I181" s="88"/>
+      <c r="J181" s="88"/>
       <c r="K181" s="32"/>
       <c r="L181" s="60"/>
       <c r="M181" s="32"/>
@@ -7493,15 +7512,15 @@
       <c r="D182" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="85"/>
-      <c r="F182" s="79"/>
-      <c r="G182" s="82" t="str">
+      <c r="E182" s="89"/>
+      <c r="F182" s="80"/>
+      <c r="G182" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H182" s="82"/>
-      <c r="I182" s="82"/>
-      <c r="J182" s="82"/>
+      <c r="H182" s="83"/>
+      <c r="I182" s="83"/>
+      <c r="J182" s="83"/>
       <c r="K182" s="30"/>
       <c r="L182" s="30"/>
       <c r="M182" s="30"/>
@@ -7517,12 +7536,12 @@
         <f>'Senet Taksit Giriş'!D11</f>
         <v>45777</v>
       </c>
-      <c r="E183" s="85"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="82"/>
-      <c r="H183" s="82"/>
-      <c r="I183" s="82"/>
-      <c r="J183" s="82"/>
+      <c r="E183" s="89"/>
+      <c r="F183" s="80"/>
+      <c r="G183" s="83"/>
+      <c r="H183" s="83"/>
+      <c r="I183" s="83"/>
+      <c r="J183" s="83"/>
       <c r="K183" s="30"/>
       <c r="L183" s="43" t="s">
         <v>49</v>
@@ -7539,15 +7558,15 @@
       <c r="D184" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E184" s="85"/>
-      <c r="F184" s="79"/>
-      <c r="G184" s="83" t="str">
+      <c r="E184" s="89"/>
+      <c r="F184" s="80"/>
+      <c r="G184" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H184" s="83"/>
-      <c r="I184" s="83"/>
-      <c r="J184" s="83"/>
+      <c r="H184" s="84"/>
+      <c r="I184" s="84"/>
+      <c r="J184" s="84"/>
       <c r="K184" s="30"/>
       <c r="L184" s="30"/>
       <c r="M184" s="30"/>
@@ -7563,15 +7582,15 @@
         <f>'Senet Taksit Giriş'!C11</f>
         <v>45503</v>
       </c>
-      <c r="E185" s="85"/>
-      <c r="F185" s="79"/>
-      <c r="G185" s="84" t="str">
+      <c r="E185" s="89"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H185" s="84"/>
-      <c r="I185" s="84"/>
-      <c r="J185" s="84"/>
+      <c r="H185" s="85"/>
+      <c r="I185" s="85"/>
+      <c r="J185" s="85"/>
       <c r="K185" s="58"/>
       <c r="L185" s="58"/>
       <c r="M185" s="58"/>
@@ -7622,7 +7641,7 @@
       <c r="D188" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E188" s="85" t="str">
+      <c r="E188" s="89" t="str">
         <f>$D195 &amp;"    - Taksit No: " &amp; $D190&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 10 #  </v>
       </c>
@@ -7655,7 +7674,7 @@
       <c r="D189" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E189" s="85"/>
+      <c r="E189" s="89"/>
       <c r="F189" s="30"/>
       <c r="G189" s="45">
         <f>D203</f>
@@ -7691,7 +7710,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B12),"##.##0")&amp;" #"</f>
         <v># 10 #</v>
       </c>
-      <c r="E190" s="85"/>
+      <c r="E190" s="89"/>
       <c r="F190" s="30"/>
       <c r="G190" s="30"/>
       <c r="H190" s="30"/>
@@ -7711,7 +7730,7 @@
       <c r="D191" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E191" s="85"/>
+      <c r="E191" s="89"/>
       <c r="F191" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G189,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F12&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G12&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -7735,7 +7754,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E12),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E192" s="85"/>
+      <c r="E192" s="89"/>
       <c r="F192" s="86"/>
       <c r="G192" s="86"/>
       <c r="H192" s="86"/>
@@ -7756,7 +7775,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E195-INT('Senet Taksit Giriş'!E195))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E193" s="85"/>
+      <c r="E193" s="89"/>
       <c r="F193" s="86"/>
       <c r="G193" s="86"/>
       <c r="H193" s="86"/>
@@ -7776,7 +7795,7 @@
       <c r="D194" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E194" s="85"/>
+      <c r="E194" s="89"/>
       <c r="F194" s="86"/>
       <c r="G194" s="86"/>
       <c r="H194" s="86"/>
@@ -7793,11 +7812,11 @@
       <c r="A195" s="30"/>
       <c r="B195" s="55"/>
       <c r="C195" s="30"/>
-      <c r="D195" s="78" t="str">
+      <c r="D195" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E195" s="85"/>
+      <c r="E195" s="89"/>
       <c r="F195"/>
       <c r="G195"/>
       <c r="H195"/>
@@ -7814,22 +7833,22 @@
       <c r="A196" s="30"/>
       <c r="B196" s="42"/>
       <c r="C196" s="30"/>
-      <c r="D196" s="78"/>
-      <c r="E196" s="85"/>
-      <c r="F196" s="79" t="s">
+      <c r="D196" s="79"/>
+      <c r="E196" s="89"/>
+      <c r="F196" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G196" s="80" t="str">
+      <c r="G196" s="88" t="str">
         <f>"İsim : "&amp;$D195</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H196" s="80"/>
-      <c r="I196" s="80"/>
-      <c r="J196" s="80"/>
+      <c r="H196" s="88"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
       <c r="K196" s="32"/>
       <c r="L196" s="32"/>
-      <c r="M196" s="81"/>
-      <c r="N196" s="81"/>
+      <c r="M196" s="82"/>
+      <c r="N196" s="82"/>
       <c r="O196" s="33"/>
       <c r="P196" s="51"/>
     </row>
@@ -7837,17 +7856,17 @@
       <c r="A197" s="30"/>
       <c r="B197" s="56"/>
       <c r="C197" s="57"/>
-      <c r="D197" s="78"/>
-      <c r="E197" s="85"/>
-      <c r="F197" s="79"/>
-      <c r="G197" s="82" t="str">
+      <c r="D197" s="79"/>
+      <c r="E197" s="89"/>
+      <c r="F197" s="80"/>
+      <c r="G197" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H197" s="82"/>
-      <c r="I197" s="82"/>
-      <c r="J197" s="82"/>
-      <c r="K197" s="82"/>
+      <c r="H197" s="83"/>
+      <c r="I197" s="83"/>
+      <c r="J197" s="83"/>
+      <c r="K197" s="83"/>
       <c r="L197" s="30"/>
       <c r="M197" s="30"/>
       <c r="N197" s="30"/>
@@ -7858,14 +7877,14 @@
       <c r="A198" s="30"/>
       <c r="B198" s="56"/>
       <c r="C198" s="57"/>
-      <c r="D198" s="78"/>
-      <c r="E198" s="85"/>
-      <c r="F198" s="79"/>
-      <c r="G198" s="82"/>
-      <c r="H198" s="82"/>
-      <c r="I198" s="82"/>
-      <c r="J198" s="82"/>
-      <c r="K198" s="82"/>
+      <c r="D198" s="79"/>
+      <c r="E198" s="89"/>
+      <c r="F198" s="80"/>
+      <c r="G198" s="83"/>
+      <c r="H198" s="83"/>
+      <c r="I198" s="83"/>
+      <c r="J198" s="83"/>
+      <c r="K198" s="83"/>
       <c r="L198" s="43" t="s">
         <v>49</v>
       </c>
@@ -7878,16 +7897,16 @@
       <c r="A199" s="30"/>
       <c r="B199" s="56"/>
       <c r="C199" s="57"/>
-      <c r="D199" s="78"/>
-      <c r="E199" s="85"/>
-      <c r="F199" s="79"/>
-      <c r="G199" s="83" t="str">
+      <c r="D199" s="79"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="80"/>
+      <c r="G199" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H199" s="83"/>
-      <c r="I199" s="83"/>
-      <c r="J199" s="83"/>
+      <c r="H199" s="84"/>
+      <c r="I199" s="84"/>
+      <c r="J199" s="84"/>
       <c r="K199" s="30"/>
       <c r="L199" s="30"/>
       <c r="M199" s="30"/>
@@ -7899,16 +7918,16 @@
       <c r="A200" s="30"/>
       <c r="B200" s="42"/>
       <c r="C200" s="30"/>
-      <c r="D200" s="78"/>
-      <c r="E200" s="85"/>
-      <c r="F200" s="79"/>
-      <c r="G200" s="84" t="str">
+      <c r="D200" s="79"/>
+      <c r="E200" s="89"/>
+      <c r="F200" s="80"/>
+      <c r="G200" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H200" s="84"/>
-      <c r="I200" s="84"/>
-      <c r="J200" s="84"/>
+      <c r="H200" s="85"/>
+      <c r="I200" s="85"/>
+      <c r="J200" s="85"/>
       <c r="K200" s="58"/>
       <c r="L200" s="58"/>
       <c r="M200" s="58"/>
@@ -7920,18 +7939,18 @@
       <c r="A201" s="30"/>
       <c r="B201" s="55"/>
       <c r="C201" s="30"/>
-      <c r="D201" s="78"/>
-      <c r="E201" s="85"/>
-      <c r="F201" s="79" t="s">
+      <c r="D201" s="79"/>
+      <c r="E201" s="89"/>
+      <c r="F201" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G201" s="80" t="str">
+      <c r="G201" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H201" s="80"/>
-      <c r="I201" s="80"/>
-      <c r="J201" s="80"/>
+      <c r="H201" s="88"/>
+      <c r="I201" s="88"/>
+      <c r="J201" s="88"/>
       <c r="K201" s="32"/>
       <c r="L201" s="60"/>
       <c r="M201" s="32"/>
@@ -7946,15 +7965,15 @@
       <c r="D202" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="85"/>
-      <c r="F202" s="79"/>
-      <c r="G202" s="82" t="str">
+      <c r="E202" s="89"/>
+      <c r="F202" s="80"/>
+      <c r="G202" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H202" s="82"/>
-      <c r="I202" s="82"/>
-      <c r="J202" s="82"/>
+      <c r="H202" s="83"/>
+      <c r="I202" s="83"/>
+      <c r="J202" s="83"/>
       <c r="K202" s="30"/>
       <c r="L202" s="30"/>
       <c r="M202" s="30"/>
@@ -7970,12 +7989,12 @@
         <f>'Senet Taksit Giriş'!D12</f>
         <v>45807</v>
       </c>
-      <c r="E203" s="85"/>
-      <c r="F203" s="79"/>
-      <c r="G203" s="82"/>
-      <c r="H203" s="82"/>
-      <c r="I203" s="82"/>
-      <c r="J203" s="82"/>
+      <c r="E203" s="89"/>
+      <c r="F203" s="80"/>
+      <c r="G203" s="83"/>
+      <c r="H203" s="83"/>
+      <c r="I203" s="83"/>
+      <c r="J203" s="83"/>
       <c r="K203" s="30"/>
       <c r="L203" s="43" t="s">
         <v>49</v>
@@ -7992,15 +8011,15 @@
       <c r="D204" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E204" s="85"/>
-      <c r="F204" s="79"/>
-      <c r="G204" s="83" t="str">
+      <c r="E204" s="89"/>
+      <c r="F204" s="80"/>
+      <c r="G204" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H204" s="83"/>
-      <c r="I204" s="83"/>
-      <c r="J204" s="83"/>
+      <c r="H204" s="84"/>
+      <c r="I204" s="84"/>
+      <c r="J204" s="84"/>
       <c r="K204" s="30"/>
       <c r="L204" s="30"/>
       <c r="M204" s="30"/>
@@ -8016,15 +8035,15 @@
         <f>'Senet Taksit Giriş'!C12</f>
         <v>45503</v>
       </c>
-      <c r="E205" s="85"/>
-      <c r="F205" s="79"/>
-      <c r="G205" s="84" t="str">
+      <c r="E205" s="89"/>
+      <c r="F205" s="80"/>
+      <c r="G205" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H205" s="84"/>
-      <c r="I205" s="84"/>
-      <c r="J205" s="84"/>
+      <c r="H205" s="85"/>
+      <c r="I205" s="85"/>
+      <c r="J205" s="85"/>
       <c r="K205" s="58"/>
       <c r="L205" s="58"/>
       <c r="M205" s="58"/>
@@ -8075,7 +8094,7 @@
       <c r="D209" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E209" s="85" t="str">
+      <c r="E209" s="89" t="str">
         <f>$D216 &amp;"    - Taksit No: " &amp; $D211&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: # 11 #  </v>
       </c>
@@ -8108,7 +8127,7 @@
       <c r="D210" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E210" s="85"/>
+      <c r="E210" s="89"/>
       <c r="F210" s="30"/>
       <c r="G210" s="45">
         <f>D224</f>
@@ -8144,7 +8163,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B13),"##.##0")&amp;" #"</f>
         <v># 11 #</v>
       </c>
-      <c r="E211" s="85"/>
+      <c r="E211" s="89"/>
       <c r="F211" s="30"/>
       <c r="G211" s="30"/>
       <c r="H211" s="30"/>
@@ -8164,7 +8183,7 @@
       <c r="D212" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="85"/>
+      <c r="E212" s="89"/>
       <c r="F212" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin")&amp;" mükabilinde "&amp;TEXT(G210,"dd mmmm yyyy")&amp;" tarihinde Sayın : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$1&amp;" 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # "&amp;'Senet Taksit Giriş'!F13&amp;" # ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G13&amp;" ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini,"&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde 00 mmmm 2025 tarihinde Sayın : HACI MURAT BALCI 'ya veyahut emruhavalesine yukarıda yazılı Yalnız # Onyedibin TL  # ödeyeceğim. Bedeli NAKDEN ahzolunmuştur. İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak kabul edileceğini, müteakip bonolarında muacceliyet kesbedeceğini, ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
@@ -8188,7 +8207,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!E13),"##.##0")&amp;" TL #"</f>
         <v># 17.000 TL #</v>
       </c>
-      <c r="E213" s="85"/>
+      <c r="E213" s="89"/>
       <c r="F213" s="86"/>
       <c r="G213" s="86"/>
       <c r="H213" s="86"/>
@@ -8209,7 +8228,7 @@
         <f>"# "&amp;TEXT(('Senet Taksit Giriş'!E216-INT('Senet Taksit Giriş'!E216))*100,"##.##")&amp;"  Krş #"</f>
         <v>#   Krş #</v>
       </c>
-      <c r="E214" s="85"/>
+      <c r="E214" s="89"/>
       <c r="F214" s="86"/>
       <c r="G214" s="86"/>
       <c r="H214" s="86"/>
@@ -8229,7 +8248,7 @@
       <c r="D215" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E215" s="85"/>
+      <c r="E215" s="89"/>
       <c r="F215" s="86"/>
       <c r="G215" s="86"/>
       <c r="H215" s="86"/>
@@ -8246,11 +8265,11 @@
       <c r="A216" s="30"/>
       <c r="B216" s="55"/>
       <c r="C216" s="30"/>
-      <c r="D216" s="78" t="str">
+      <c r="D216" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E216" s="85"/>
+      <c r="E216" s="89"/>
       <c r="F216"/>
       <c r="G216"/>
       <c r="H216"/>
@@ -8267,22 +8286,22 @@
       <c r="A217" s="30"/>
       <c r="B217" s="42"/>
       <c r="C217" s="30"/>
-      <c r="D217" s="78"/>
-      <c r="E217" s="85"/>
-      <c r="F217" s="79" t="s">
+      <c r="D217" s="79"/>
+      <c r="E217" s="89"/>
+      <c r="F217" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G217" s="80" t="str">
+      <c r="G217" s="88" t="str">
         <f>"İsim : "&amp;$D216</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H217" s="80"/>
-      <c r="I217" s="80"/>
-      <c r="J217" s="80"/>
+      <c r="H217" s="88"/>
+      <c r="I217" s="88"/>
+      <c r="J217" s="88"/>
       <c r="K217" s="32"/>
       <c r="L217" s="32"/>
-      <c r="M217" s="81"/>
-      <c r="N217" s="81"/>
+      <c r="M217" s="82"/>
+      <c r="N217" s="82"/>
       <c r="O217" s="33"/>
       <c r="P217" s="51"/>
     </row>
@@ -8290,17 +8309,17 @@
       <c r="A218" s="30"/>
       <c r="B218" s="56"/>
       <c r="C218" s="57"/>
-      <c r="D218" s="78"/>
-      <c r="E218" s="85"/>
-      <c r="F218" s="79"/>
-      <c r="G218" s="82" t="str">
+      <c r="D218" s="79"/>
+      <c r="E218" s="89"/>
+      <c r="F218" s="80"/>
+      <c r="G218" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H218" s="82"/>
-      <c r="I218" s="82"/>
-      <c r="J218" s="82"/>
-      <c r="K218" s="82"/>
+      <c r="H218" s="83"/>
+      <c r="I218" s="83"/>
+      <c r="J218" s="83"/>
+      <c r="K218" s="83"/>
       <c r="L218" s="30"/>
       <c r="M218" s="30"/>
       <c r="N218" s="30"/>
@@ -8311,14 +8330,14 @@
       <c r="A219" s="30"/>
       <c r="B219" s="56"/>
       <c r="C219" s="57"/>
-      <c r="D219" s="78"/>
-      <c r="E219" s="85"/>
-      <c r="F219" s="79"/>
-      <c r="G219" s="82"/>
-      <c r="H219" s="82"/>
-      <c r="I219" s="82"/>
-      <c r="J219" s="82"/>
-      <c r="K219" s="82"/>
+      <c r="D219" s="79"/>
+      <c r="E219" s="89"/>
+      <c r="F219" s="80"/>
+      <c r="G219" s="83"/>
+      <c r="H219" s="83"/>
+      <c r="I219" s="83"/>
+      <c r="J219" s="83"/>
+      <c r="K219" s="83"/>
       <c r="L219" s="43" t="s">
         <v>49</v>
       </c>
@@ -8331,16 +8350,16 @@
       <c r="A220" s="30"/>
       <c r="B220" s="56"/>
       <c r="C220" s="57"/>
-      <c r="D220" s="78"/>
-      <c r="E220" s="85"/>
-      <c r="F220" s="79"/>
-      <c r="G220" s="83" t="str">
+      <c r="D220" s="79"/>
+      <c r="E220" s="89"/>
+      <c r="F220" s="80"/>
+      <c r="G220" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H220" s="83"/>
-      <c r="I220" s="83"/>
-      <c r="J220" s="83"/>
+      <c r="H220" s="84"/>
+      <c r="I220" s="84"/>
+      <c r="J220" s="84"/>
       <c r="K220" s="30"/>
       <c r="L220" s="30"/>
       <c r="M220" s="30"/>
@@ -8352,16 +8371,16 @@
       <c r="A221" s="30"/>
       <c r="B221" s="42"/>
       <c r="C221" s="30"/>
-      <c r="D221" s="78"/>
-      <c r="E221" s="85"/>
-      <c r="F221" s="79"/>
-      <c r="G221" s="84" t="str">
+      <c r="D221" s="79"/>
+      <c r="E221" s="89"/>
+      <c r="F221" s="80"/>
+      <c r="G221" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H221" s="84"/>
-      <c r="I221" s="84"/>
-      <c r="J221" s="84"/>
+      <c r="H221" s="85"/>
+      <c r="I221" s="85"/>
+      <c r="J221" s="85"/>
       <c r="K221" s="58"/>
       <c r="L221" s="58"/>
       <c r="M221" s="58"/>
@@ -8373,18 +8392,18 @@
       <c r="A222" s="30"/>
       <c r="B222" s="55"/>
       <c r="C222" s="30"/>
-      <c r="D222" s="78"/>
-      <c r="E222" s="85"/>
-      <c r="F222" s="79" t="s">
+      <c r="D222" s="79"/>
+      <c r="E222" s="89"/>
+      <c r="F222" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G222" s="80" t="str">
+      <c r="G222" s="88" t="str">
         <f>"İsim Unvan : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim Unvan : Adem Duman</v>
       </c>
-      <c r="H222" s="80"/>
-      <c r="I222" s="80"/>
-      <c r="J222" s="80"/>
+      <c r="H222" s="88"/>
+      <c r="I222" s="88"/>
+      <c r="J222" s="88"/>
       <c r="K222" s="32"/>
       <c r="L222" s="60"/>
       <c r="M222" s="32"/>
@@ -8399,15 +8418,15 @@
       <c r="D223" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="85"/>
-      <c r="F223" s="79"/>
-      <c r="G223" s="82" t="str">
+      <c r="E223" s="89"/>
+      <c r="F223" s="80"/>
+      <c r="G223" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H223" s="82"/>
-      <c r="I223" s="82"/>
-      <c r="J223" s="82"/>
+      <c r="H223" s="83"/>
+      <c r="I223" s="83"/>
+      <c r="J223" s="83"/>
       <c r="K223" s="30"/>
       <c r="L223" s="30"/>
       <c r="M223" s="30"/>
@@ -8423,12 +8442,12 @@
         <f>'Senet Taksit Giriş'!D13</f>
         <v>45838</v>
       </c>
-      <c r="E224" s="85"/>
-      <c r="F224" s="79"/>
-      <c r="G224" s="82"/>
-      <c r="H224" s="82"/>
-      <c r="I224" s="82"/>
-      <c r="J224" s="82"/>
+      <c r="E224" s="89"/>
+      <c r="F224" s="80"/>
+      <c r="G224" s="83"/>
+      <c r="H224" s="83"/>
+      <c r="I224" s="83"/>
+      <c r="J224" s="83"/>
       <c r="K224" s="30"/>
       <c r="L224" s="43" t="s">
         <v>49</v>
@@ -8445,15 +8464,15 @@
       <c r="D225" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E225" s="85"/>
-      <c r="F225" s="79"/>
-      <c r="G225" s="83" t="str">
+      <c r="E225" s="89"/>
+      <c r="F225" s="80"/>
+      <c r="G225" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H225" s="83"/>
-      <c r="I225" s="83"/>
-      <c r="J225" s="83"/>
+      <c r="H225" s="84"/>
+      <c r="I225" s="84"/>
+      <c r="J225" s="84"/>
       <c r="K225" s="30"/>
       <c r="L225" s="30"/>
       <c r="M225" s="30"/>
@@ -8469,15 +8488,15 @@
         <f>'Senet Taksit Giriş'!C13</f>
         <v>45503</v>
       </c>
-      <c r="E226" s="85"/>
-      <c r="F226" s="79"/>
-      <c r="G226" s="84" t="str">
+      <c r="E226" s="89"/>
+      <c r="F226" s="80"/>
+      <c r="G226" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H226" s="84"/>
-      <c r="I226" s="84"/>
-      <c r="J226" s="84"/>
+      <c r="H226" s="85"/>
+      <c r="I226" s="85"/>
+      <c r="J226" s="85"/>
       <c r="K226" s="58"/>
       <c r="L226" s="58"/>
       <c r="M226" s="58"/>
@@ -8528,7 +8547,7 @@
       <c r="D230" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="E230" s="85" t="str">
+      <c r="E230" s="89" t="str">
         <f>$D238 &amp;"    - Taksit No: " &amp; $D232&amp;"  "</f>
         <v xml:space="preserve">Adem Duman    - Taksit No: #         #  </v>
       </c>
@@ -8561,7 +8580,7 @@
       <c r="D231" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E231" s="85"/>
+      <c r="E231" s="89"/>
       <c r="F231" s="30"/>
       <c r="G231" s="45"/>
       <c r="H231" s="46"/>
@@ -8591,7 +8610,7 @@
         <f>"# "&amp;TEXT(INT('Senet Taksit Giriş'!B14),"##.##    ")&amp;"    #"</f>
         <v>#         #</v>
       </c>
-      <c r="E232" s="85"/>
+      <c r="E232" s="89"/>
       <c r="F232" s="30"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
@@ -8611,20 +8630,20 @@
       <c r="D233" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="E233" s="85"/>
+      <c r="E233" s="89"/>
       <c r="F233" s="86" t="str">
         <f>"   İş bu emre muharrer senedim"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","in","izin") &amp; " mükabilinde                 " &amp; "              tarihinde Sayın :                                                                       'ya "&amp;" veyahut emruhavalesine yukarıda yazılı Yalnız #                                      " &amp; "                                                                                            # TL ödeyeceği"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")&amp;" Bedeli "&amp;'Senet Taksit Giriş'!G14&amp;"  ahzolunmuştur. "</f>
         <v xml:space="preserve">   İş bu emre muharrer senedimin mükabilinde                               tarihinde Sayın :                                                                       'ya  veyahut emruhavalesine yukarıda yazılı Yalnız #                                                                                                                                  # TL ödeyeceğim. Bedeli nakden  ahzolunmuştur. </v>
       </c>
-      <c r="G233" s="88"/>
-      <c r="H233" s="88"/>
-      <c r="I233" s="88"/>
-      <c r="J233" s="88"/>
-      <c r="K233" s="88"/>
-      <c r="L233" s="88"/>
-      <c r="M233" s="88"/>
-      <c r="N233" s="88"/>
-      <c r="O233" s="88"/>
+      <c r="G233" s="87"/>
+      <c r="H233" s="87"/>
+      <c r="I233" s="87"/>
+      <c r="J233" s="87"/>
+      <c r="K233" s="87"/>
+      <c r="L233" s="87"/>
+      <c r="M233" s="87"/>
+      <c r="N233" s="87"/>
+      <c r="O233" s="87"/>
       <c r="P233" s="51"/>
     </row>
     <row r="234" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8635,17 +8654,17 @@
         <f>TEXT(INT('Senet Taksit Giriş'!E14),"##.##                        ")&amp;" TL "</f>
         <v xml:space="preserve">                         TL </v>
       </c>
-      <c r="E234" s="85"/>
-      <c r="F234" s="88"/>
-      <c r="G234" s="88"/>
-      <c r="H234" s="88"/>
-      <c r="I234" s="88"/>
-      <c r="J234" s="88"/>
-      <c r="K234" s="88"/>
-      <c r="L234" s="88"/>
-      <c r="M234" s="88"/>
-      <c r="N234" s="88"/>
-      <c r="O234" s="88"/>
+      <c r="E234" s="89"/>
+      <c r="F234" s="87"/>
+      <c r="G234" s="87"/>
+      <c r="H234" s="87"/>
+      <c r="I234" s="87"/>
+      <c r="J234" s="87"/>
+      <c r="K234" s="87"/>
+      <c r="L234" s="87"/>
+      <c r="M234" s="87"/>
+      <c r="N234" s="87"/>
+      <c r="O234" s="87"/>
       <c r="P234" s="51"/>
     </row>
     <row r="235" spans="1:16" ht="23.85" customHeight="1" x14ac:dyDescent="0.35">
@@ -8656,17 +8675,17 @@
         <f>" "&amp;TEXT(('Senet Taksit Giriş'!E237-INT('Senet Taksit Giriş'!E237))*100,"##.##       ")&amp;" Krş "</f>
         <v xml:space="preserve">         Krş </v>
       </c>
-      <c r="E235" s="85"/>
-      <c r="F235" s="88"/>
-      <c r="G235" s="88"/>
-      <c r="H235" s="88"/>
-      <c r="I235" s="88"/>
-      <c r="J235" s="88"/>
-      <c r="K235" s="88"/>
-      <c r="L235" s="88"/>
-      <c r="M235" s="88"/>
-      <c r="N235" s="88"/>
-      <c r="O235" s="88"/>
+      <c r="E235" s="89"/>
+      <c r="F235" s="87"/>
+      <c r="G235" s="87"/>
+      <c r="H235" s="87"/>
+      <c r="I235" s="87"/>
+      <c r="J235" s="87"/>
+      <c r="K235" s="87"/>
+      <c r="L235" s="87"/>
+      <c r="M235" s="87"/>
+      <c r="N235" s="87"/>
+      <c r="O235" s="87"/>
       <c r="P235" s="51"/>
     </row>
     <row r="236" spans="1:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8676,49 +8695,49 @@
       <c r="D236" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="E236" s="85"/>
+      <c r="E236" s="89"/>
       <c r="F236" s="86" t="str">
         <f>"İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi, "&amp;" ihtilaf vukuunda "&amp;'Senet Borçlu Alacaklı Giriş'!$C$2&amp;" mahkemelerinin selahiyetini şimdiden kabul eyleri"&amp;IF('Senet Borçlu Alacaklı Giriş'!$C$4="Gerçek Kişi","m.","z.")</f>
         <v>İş bu bono vadesinde ödenmediği taktirde; iş bu bononun düzenleme tarihinin temerrüt başlangıç tarihi olarak, temerrüt faizi olarak ise yasal faizin iki katı faiz uygulanmasını kabul ettiğimi,  ihtilaf vukuunda TOKAT mahkemelerinin selahiyetini şimdiden kabul eylerim.</v>
       </c>
-      <c r="G236" s="88"/>
-      <c r="H236" s="88"/>
-      <c r="I236" s="88"/>
-      <c r="J236" s="88"/>
-      <c r="K236" s="88"/>
-      <c r="L236" s="88"/>
-      <c r="M236" s="88"/>
-      <c r="N236" s="88"/>
-      <c r="O236" s="88"/>
+      <c r="G236" s="87"/>
+      <c r="H236" s="87"/>
+      <c r="I236" s="87"/>
+      <c r="J236" s="87"/>
+      <c r="K236" s="87"/>
+      <c r="L236" s="87"/>
+      <c r="M236" s="87"/>
+      <c r="N236" s="87"/>
+      <c r="O236" s="87"/>
       <c r="P236" s="51"/>
     </row>
     <row r="237" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="30"/>
       <c r="B237" s="42"/>
       <c r="C237" s="30"/>
-      <c r="D237" s="89"/>
-      <c r="E237" s="85"/>
-      <c r="F237" s="88"/>
-      <c r="G237" s="88"/>
-      <c r="H237" s="88"/>
-      <c r="I237" s="88"/>
-      <c r="J237" s="88"/>
-      <c r="K237" s="88"/>
-      <c r="L237" s="88"/>
-      <c r="M237" s="88"/>
-      <c r="N237" s="88"/>
-      <c r="O237" s="88"/>
+      <c r="D237" s="74"/>
+      <c r="E237" s="89"/>
+      <c r="F237" s="87"/>
+      <c r="G237" s="87"/>
+      <c r="H237" s="87"/>
+      <c r="I237" s="87"/>
+      <c r="J237" s="87"/>
+      <c r="K237" s="87"/>
+      <c r="L237" s="87"/>
+      <c r="M237" s="87"/>
+      <c r="N237" s="87"/>
+      <c r="O237" s="87"/>
       <c r="P237" s="51"/>
     </row>
     <row r="238" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="30"/>
       <c r="B238" s="55"/>
       <c r="C238" s="30"/>
-      <c r="D238" s="78" t="str">
+      <c r="D238" s="79" t="str">
         <f>$D$9</f>
         <v>Adem Duman</v>
       </c>
-      <c r="E238" s="85"/>
+      <c r="E238" s="89"/>
       <c r="F238"/>
       <c r="G238"/>
       <c r="H238"/>
@@ -8735,22 +8754,22 @@
       <c r="A239" s="30"/>
       <c r="B239" s="42"/>
       <c r="C239" s="30"/>
-      <c r="D239" s="78"/>
-      <c r="E239" s="85"/>
-      <c r="F239" s="79" t="s">
+      <c r="D239" s="79"/>
+      <c r="E239" s="89"/>
+      <c r="F239" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="G239" s="80" t="str">
+      <c r="G239" s="88" t="str">
         <f>"İsim : "&amp;$D238</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H239" s="80"/>
-      <c r="I239" s="80"/>
-      <c r="J239" s="80"/>
+      <c r="H239" s="88"/>
+      <c r="I239" s="88"/>
+      <c r="J239" s="88"/>
       <c r="K239" s="32"/>
       <c r="L239" s="32"/>
-      <c r="M239" s="81"/>
-      <c r="N239" s="81"/>
+      <c r="M239" s="82"/>
+      <c r="N239" s="82"/>
       <c r="O239" s="33"/>
       <c r="P239" s="51"/>
     </row>
@@ -8758,17 +8777,17 @@
       <c r="A240" s="30"/>
       <c r="B240" s="56"/>
       <c r="C240" s="57"/>
-      <c r="D240" s="78"/>
-      <c r="E240" s="85"/>
-      <c r="F240" s="79"/>
-      <c r="G240" s="82" t="str">
+      <c r="D240" s="79"/>
+      <c r="E240" s="89"/>
+      <c r="F240" s="80"/>
+      <c r="G240" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$6</f>
         <v>Adres : Hızarhane Cad. No:5 TOKAT</v>
       </c>
-      <c r="H240" s="82"/>
-      <c r="I240" s="82"/>
-      <c r="J240" s="82"/>
-      <c r="K240" s="82"/>
+      <c r="H240" s="83"/>
+      <c r="I240" s="83"/>
+      <c r="J240" s="83"/>
+      <c r="K240" s="83"/>
       <c r="L240" s="30"/>
       <c r="M240" s="30"/>
       <c r="N240" s="30"/>
@@ -8779,14 +8798,14 @@
       <c r="A241" s="30"/>
       <c r="B241" s="56"/>
       <c r="C241" s="57"/>
-      <c r="D241" s="78"/>
-      <c r="E241" s="85"/>
-      <c r="F241" s="79"/>
-      <c r="G241" s="82"/>
-      <c r="H241" s="82"/>
-      <c r="I241" s="82"/>
-      <c r="J241" s="82"/>
-      <c r="K241" s="82"/>
+      <c r="D241" s="79"/>
+      <c r="E241" s="89"/>
+      <c r="F241" s="80"/>
+      <c r="G241" s="83"/>
+      <c r="H241" s="83"/>
+      <c r="I241" s="83"/>
+      <c r="J241" s="83"/>
+      <c r="K241" s="83"/>
       <c r="L241" s="43" t="s">
         <v>49</v>
       </c>
@@ -8799,16 +8818,16 @@
       <c r="A242" s="30"/>
       <c r="B242" s="56"/>
       <c r="C242" s="57"/>
-      <c r="D242" s="78"/>
-      <c r="E242" s="85"/>
-      <c r="F242" s="79"/>
-      <c r="G242" s="83" t="str">
+      <c r="D242" s="79"/>
+      <c r="E242" s="89"/>
+      <c r="F242" s="80"/>
+      <c r="G242" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$7</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H242" s="83"/>
-      <c r="I242" s="83"/>
-      <c r="J242" s="83"/>
+      <c r="H242" s="84"/>
+      <c r="I242" s="84"/>
+      <c r="J242" s="84"/>
       <c r="K242" s="30"/>
       <c r="L242" s="30"/>
       <c r="M242" s="30"/>
@@ -8820,16 +8839,16 @@
       <c r="A243" s="30"/>
       <c r="B243" s="42"/>
       <c r="C243" s="30"/>
-      <c r="D243" s="78"/>
-      <c r="E243" s="85"/>
-      <c r="F243" s="79"/>
-      <c r="G243" s="84" t="str">
+      <c r="D243" s="79"/>
+      <c r="E243" s="89"/>
+      <c r="F243" s="80"/>
+      <c r="G243" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$8</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H243" s="84"/>
-      <c r="I243" s="84"/>
-      <c r="J243" s="84"/>
+      <c r="H243" s="85"/>
+      <c r="I243" s="85"/>
+      <c r="J243" s="85"/>
       <c r="K243" s="58"/>
       <c r="L243" s="58"/>
       <c r="M243" s="58"/>
@@ -8841,18 +8860,18 @@
       <c r="A244" s="30"/>
       <c r="B244" s="55"/>
       <c r="C244" s="30"/>
-      <c r="D244" s="78"/>
-      <c r="E244" s="85"/>
-      <c r="F244" s="79" t="s">
+      <c r="D244" s="79"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G244" s="80" t="str">
+      <c r="G244" s="88" t="str">
         <f>"İsim : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$9</f>
         <v>İsim : Adem Duman</v>
       </c>
-      <c r="H244" s="80"/>
-      <c r="I244" s="80"/>
-      <c r="J244" s="80"/>
+      <c r="H244" s="88"/>
+      <c r="I244" s="88"/>
+      <c r="J244" s="88"/>
       <c r="K244" s="32"/>
       <c r="L244" s="60"/>
       <c r="M244" s="32"/>
@@ -8867,15 +8886,15 @@
       <c r="D245" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="85"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="82" t="str">
+      <c r="E245" s="89"/>
+      <c r="F245" s="80"/>
+      <c r="G245" s="83" t="str">
         <f>"Adres : " &amp;'Senet Borçlu Alacaklı Giriş'!$C$10</f>
         <v>Adres : Esentepe Mah. Şehit Ulaşar Cad. Belde Sitesi B Blk. K1: D:3 TOKAT</v>
       </c>
-      <c r="H245" s="82"/>
-      <c r="I245" s="82"/>
-      <c r="J245" s="82"/>
+      <c r="H245" s="83"/>
+      <c r="I245" s="83"/>
+      <c r="J245" s="83"/>
       <c r="K245" s="30"/>
       <c r="L245" s="30"/>
       <c r="M245" s="30"/>
@@ -8891,12 +8910,12 @@
         <f>'Senet Taksit Giriş'!D14</f>
         <v>0</v>
       </c>
-      <c r="E246" s="85"/>
-      <c r="F246" s="79"/>
-      <c r="G246" s="82"/>
-      <c r="H246" s="82"/>
-      <c r="I246" s="82"/>
-      <c r="J246" s="82"/>
+      <c r="E246" s="89"/>
+      <c r="F246" s="80"/>
+      <c r="G246" s="83"/>
+      <c r="H246" s="83"/>
+      <c r="I246" s="83"/>
+      <c r="J246" s="83"/>
       <c r="K246" s="30"/>
       <c r="L246" s="43" t="s">
         <v>49</v>
@@ -8913,15 +8932,15 @@
       <c r="D247" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E247" s="85"/>
-      <c r="F247" s="79"/>
-      <c r="G247" s="83" t="str">
+      <c r="E247" s="89"/>
+      <c r="F247" s="80"/>
+      <c r="G247" s="84" t="str">
         <f>"Vergi Dairesi : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$11</f>
         <v>Vergi Dairesi : Tokat</v>
       </c>
-      <c r="H247" s="83"/>
-      <c r="I247" s="83"/>
-      <c r="J247" s="83"/>
+      <c r="H247" s="84"/>
+      <c r="I247" s="84"/>
+      <c r="J247" s="84"/>
       <c r="K247" s="30"/>
       <c r="L247" s="30"/>
       <c r="M247" s="30"/>
@@ -8937,15 +8956,15 @@
         <f>'Senet Taksit Giriş'!C14</f>
         <v>45503</v>
       </c>
-      <c r="E248" s="85"/>
-      <c r="F248" s="79"/>
-      <c r="G248" s="84" t="str">
+      <c r="E248" s="89"/>
+      <c r="F248" s="80"/>
+      <c r="G248" s="85" t="str">
         <f>"Vergi No / TC Kimlik No : "&amp;'Senet Borçlu Alacaklı Giriş'!$C$12</f>
         <v>Vergi No / TC Kimlik No : 341 3267 6260</v>
       </c>
-      <c r="H248" s="84"/>
-      <c r="I248" s="84"/>
-      <c r="J248" s="84"/>
+      <c r="H248" s="85"/>
+      <c r="I248" s="85"/>
+      <c r="J248" s="85"/>
       <c r="K248" s="58"/>
       <c r="L248" s="58"/>
       <c r="M248" s="58"/>
@@ -9001,6 +9020,151 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="E230:E248"/>
+    <mergeCell ref="G247:J247"/>
+    <mergeCell ref="G248:J248"/>
+    <mergeCell ref="E209:E226"/>
+    <mergeCell ref="F212:O215"/>
+    <mergeCell ref="F236:O237"/>
+    <mergeCell ref="D238:D244"/>
+    <mergeCell ref="F239:F243"/>
+    <mergeCell ref="G239:J239"/>
+    <mergeCell ref="M239:N239"/>
+    <mergeCell ref="G240:K241"/>
+    <mergeCell ref="G242:J242"/>
+    <mergeCell ref="G243:J243"/>
+    <mergeCell ref="F244:F248"/>
+    <mergeCell ref="G244:J244"/>
+    <mergeCell ref="G245:J246"/>
+    <mergeCell ref="D216:D222"/>
+    <mergeCell ref="F217:F221"/>
+    <mergeCell ref="G217:J217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="G218:K219"/>
+    <mergeCell ref="G220:J220"/>
+    <mergeCell ref="G221:J221"/>
+    <mergeCell ref="F222:F226"/>
+    <mergeCell ref="D195:D201"/>
+    <mergeCell ref="F196:F200"/>
+    <mergeCell ref="G196:J196"/>
+    <mergeCell ref="M196:N196"/>
+    <mergeCell ref="G197:K198"/>
+    <mergeCell ref="G199:J199"/>
+    <mergeCell ref="G200:J200"/>
+    <mergeCell ref="F201:F205"/>
+    <mergeCell ref="G201:J201"/>
+    <mergeCell ref="G202:J203"/>
+    <mergeCell ref="G222:J222"/>
+    <mergeCell ref="G223:J224"/>
+    <mergeCell ref="G225:J225"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="G181:J181"/>
+    <mergeCell ref="G182:J183"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="G185:J185"/>
+    <mergeCell ref="E188:E205"/>
+    <mergeCell ref="F191:O194"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="E168:E185"/>
+    <mergeCell ref="F171:O174"/>
+    <mergeCell ref="E147:E164"/>
+    <mergeCell ref="F150:O153"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="G164:J164"/>
+    <mergeCell ref="E126:E143"/>
+    <mergeCell ref="F129:O132"/>
+    <mergeCell ref="D175:D181"/>
+    <mergeCell ref="F176:F180"/>
+    <mergeCell ref="G176:J176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="G177:K178"/>
+    <mergeCell ref="G179:J179"/>
+    <mergeCell ref="G180:J180"/>
+    <mergeCell ref="F181:F185"/>
+    <mergeCell ref="D154:D160"/>
+    <mergeCell ref="F155:F159"/>
+    <mergeCell ref="G155:J155"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="G156:K157"/>
+    <mergeCell ref="G158:J158"/>
+    <mergeCell ref="G159:J159"/>
+    <mergeCell ref="F160:F164"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="G161:J162"/>
+    <mergeCell ref="D133:D139"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="G134:J134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="G135:K136"/>
+    <mergeCell ref="G137:J137"/>
+    <mergeCell ref="G138:J138"/>
+    <mergeCell ref="F139:F143"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="F114:F118"/>
+    <mergeCell ref="G114:J114"/>
+    <mergeCell ref="M114:N114"/>
+    <mergeCell ref="G115:K116"/>
+    <mergeCell ref="G117:J117"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="F119:F123"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="G120:J121"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="G140:J141"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="G143:J143"/>
+    <mergeCell ref="G98:J98"/>
+    <mergeCell ref="G99:J100"/>
+    <mergeCell ref="G101:J101"/>
+    <mergeCell ref="G102:J102"/>
+    <mergeCell ref="E106:E123"/>
+    <mergeCell ref="F109:O112"/>
+    <mergeCell ref="G122:J122"/>
+    <mergeCell ref="G123:J123"/>
+    <mergeCell ref="E85:E102"/>
+    <mergeCell ref="F88:O91"/>
+    <mergeCell ref="E64:E81"/>
+    <mergeCell ref="F67:O70"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="E44:E61"/>
+    <mergeCell ref="F47:O50"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="G94:K95"/>
+    <mergeCell ref="G96:J96"/>
+    <mergeCell ref="G97:J97"/>
+    <mergeCell ref="F98:F102"/>
+    <mergeCell ref="D71:D77"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="G72:J72"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="G73:K74"/>
+    <mergeCell ref="G75:J75"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="F77:F81"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="G78:J79"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="D30:D36"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G32:K33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G58:J59"/>
+    <mergeCell ref="G60:J60"/>
+    <mergeCell ref="G61:J61"/>
     <mergeCell ref="D9:D15"/>
     <mergeCell ref="F10:F14"/>
     <mergeCell ref="G10:J10"/>
@@ -9025,151 +9189,6 @@
     <mergeCell ref="G52:J52"/>
     <mergeCell ref="M52:N52"/>
     <mergeCell ref="G53:K54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="D30:D36"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="G32:K33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="F36:F40"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J38"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G58:J59"/>
-    <mergeCell ref="G60:J60"/>
-    <mergeCell ref="G61:J61"/>
-    <mergeCell ref="E64:E81"/>
-    <mergeCell ref="F67:O70"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="E44:E61"/>
-    <mergeCell ref="F47:O50"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="G94:K95"/>
-    <mergeCell ref="G96:J96"/>
-    <mergeCell ref="G97:J97"/>
-    <mergeCell ref="F98:F102"/>
-    <mergeCell ref="D71:D77"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="G72:J72"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="G73:K74"/>
-    <mergeCell ref="G75:J75"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="F77:F81"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="G78:J79"/>
-    <mergeCell ref="G98:J98"/>
-    <mergeCell ref="G99:J100"/>
-    <mergeCell ref="G101:J101"/>
-    <mergeCell ref="G102:J102"/>
-    <mergeCell ref="E106:E123"/>
-    <mergeCell ref="F109:O112"/>
-    <mergeCell ref="G122:J122"/>
-    <mergeCell ref="G123:J123"/>
-    <mergeCell ref="E85:E102"/>
-    <mergeCell ref="F88:O91"/>
-    <mergeCell ref="D133:D139"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="G134:J134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="G135:K136"/>
-    <mergeCell ref="G137:J137"/>
-    <mergeCell ref="G138:J138"/>
-    <mergeCell ref="F139:F143"/>
-    <mergeCell ref="D113:D119"/>
-    <mergeCell ref="F114:F118"/>
-    <mergeCell ref="G114:J114"/>
-    <mergeCell ref="M114:N114"/>
-    <mergeCell ref="G115:K116"/>
-    <mergeCell ref="G117:J117"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="F119:F123"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="G120:J121"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="G140:J141"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="G143:J143"/>
-    <mergeCell ref="E147:E164"/>
-    <mergeCell ref="F150:O153"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="G164:J164"/>
-    <mergeCell ref="E126:E143"/>
-    <mergeCell ref="F129:O132"/>
-    <mergeCell ref="D175:D181"/>
-    <mergeCell ref="F176:F180"/>
-    <mergeCell ref="G176:J176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="G177:K178"/>
-    <mergeCell ref="G179:J179"/>
-    <mergeCell ref="G180:J180"/>
-    <mergeCell ref="F181:F185"/>
-    <mergeCell ref="D154:D160"/>
-    <mergeCell ref="F155:F159"/>
-    <mergeCell ref="G155:J155"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="G156:K157"/>
-    <mergeCell ref="G158:J158"/>
-    <mergeCell ref="G159:J159"/>
-    <mergeCell ref="F160:F164"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="G161:J162"/>
-    <mergeCell ref="G181:J181"/>
-    <mergeCell ref="G182:J183"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="G185:J185"/>
-    <mergeCell ref="E188:E205"/>
-    <mergeCell ref="F191:O194"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="E168:E185"/>
-    <mergeCell ref="F171:O174"/>
-    <mergeCell ref="D216:D222"/>
-    <mergeCell ref="F217:F221"/>
-    <mergeCell ref="G217:J217"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="G218:K219"/>
-    <mergeCell ref="G220:J220"/>
-    <mergeCell ref="G221:J221"/>
-    <mergeCell ref="F222:F226"/>
-    <mergeCell ref="D195:D201"/>
-    <mergeCell ref="F196:F200"/>
-    <mergeCell ref="G196:J196"/>
-    <mergeCell ref="M196:N196"/>
-    <mergeCell ref="G197:K198"/>
-    <mergeCell ref="G199:J199"/>
-    <mergeCell ref="G200:J200"/>
-    <mergeCell ref="F201:F205"/>
-    <mergeCell ref="G201:J201"/>
-    <mergeCell ref="G202:J203"/>
-    <mergeCell ref="G222:J222"/>
-    <mergeCell ref="G223:J224"/>
-    <mergeCell ref="G225:J225"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="E230:E248"/>
-    <mergeCell ref="G247:J247"/>
-    <mergeCell ref="G248:J248"/>
-    <mergeCell ref="E209:E226"/>
-    <mergeCell ref="F212:O215"/>
-    <mergeCell ref="F236:O237"/>
-    <mergeCell ref="D238:D244"/>
-    <mergeCell ref="F239:F243"/>
-    <mergeCell ref="G239:J239"/>
-    <mergeCell ref="M239:N239"/>
-    <mergeCell ref="G240:K241"/>
-    <mergeCell ref="G242:J242"/>
-    <mergeCell ref="G243:J243"/>
-    <mergeCell ref="F244:F248"/>
-    <mergeCell ref="G244:J244"/>
-    <mergeCell ref="G245:J246"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59015748031496074" bottom="1.1417322834645671" header="0.19645669291338586" footer="0.74803149606299213"/>
@@ -9182,7 +9201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
